--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFF5C2-4D19-402C-8F65-1BF47A2F3D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B62670-62D6-4EA9-9750-CF627997FB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B62670-62D6-4EA9-9750-CF627997FB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7493FE-0C38-406D-8DAA-7FB03FA413AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -573,28 +573,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>102,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02,1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,1,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +979,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,13 +1200,13 @@
         <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>81</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7493FE-0C38-406D-8DAA-7FB03FA413AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F35DB-93F2-4292-886D-9521E7058AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -979,7 +979,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1232,16 +1232,10 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1448,20 +1442,35 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>10</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F35DB-93F2-4292-886D-9521E7058AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B3FF7-5D29-474D-A2FB-3E5871EC5589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,7 +78,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击行为权重,防御行为权重,强化行为权重,削弱行为权重</t>
+攻击行为权重,防御行为权重,强化行为权重,削弱行为权重,发呆权重</t>
         </r>
       </text>
     </comment>
@@ -278,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -573,11 +575,40 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>23,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0,0,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,1</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -596,17 +627,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -978,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1194,28 +1228,41 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
         <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
     </row>
@@ -1457,19 +1504,19 @@
         <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B3FF7-5D29-474D-A2FB-3E5871EC5589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB3492-5C48-4EB3-B972-0E9180A11398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,8 +201,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>幻月:
-0：没有这个阶段</t>
+          <t>幻月:</t>
         </r>
         <r>
           <rPr>
@@ -213,8 +212,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1：默认，进入其他阶段后无法再次转化到此阶段
-2：生命值低于50%
+0：默认，进入其他阶段后无法再次转化到此阶段
+1：生命值大于50%
+2：生命值大于75%
 </t>
         </r>
       </text>
@@ -243,6 +243,9 @@
           <t xml:space="preserve">
 0：默认，进入其他阶段后无法再次转化到此阶段
 1：生命值低于50%
+2：生命值低于75%
+3：进入战斗10秒后
+4：进入战斗20秒后
 </t>
         </r>
       </text>
@@ -271,6 +274,9 @@
           <t xml:space="preserve">
 0：默认，进入其他阶段后无法再次转化到此阶段
 1：生命值低于50%
+2：生命值低于75%
+3：进入战斗20秒后
+4：进入战斗30秒后
 </t>
         </r>
       </text>
@@ -1012,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB3492-5C48-4EB3-B972-0E9180A11398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684A3B8-0B0C-4F13-95FC-569E10D6294B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{AF784865-A64C-4125-9A39-81C53A20BB28}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{AF784865-A64C-4125-9A39-81C53A20BB28}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DA5BFEA9-4449-4508-B05C-1C491084A0EC}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{DA5BFEA9-4449-4508-B05C-1C491084A0EC}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{0FB1DC52-FB7F-4AB3-B12D-F39A0D5437C9}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{0FB1DC52-FB7F-4AB3-B12D-F39A0D5437C9}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{6F68A460-339C-4184-AA42-FDB9197F6C6C}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{6F68A460-339C-4184-AA42-FDB9197F6C6C}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{49900940-81EF-4D23-8B1A-15ACD7974C03}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{49900940-81EF-4D23-8B1A-15ACD7974C03}">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{95E453A6-1FB4-491C-B75C-8C5A1EEA34DE}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{95E453A6-1FB4-491C-B75C-8C5A1EEA34DE}">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{6176C8EE-0C5B-428B-95B5-4556F55B3BFF}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{6176C8EE-0C5B-428B-95B5-4556F55B3BFF}">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
           <t xml:space="preserve">
 0：默认，进入其他阶段后无法再次转化到此阶段
 1：生命值低于50%
-2：生命值低于75%
+2：生命值低于25%
 3：进入战斗20秒后
 4：进入战斗30秒后
 </t>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -339,9 +339,6 @@
     <t>monster_test_04</t>
   </si>
   <si>
-    <t>暴击石人</t>
-  </si>
-  <si>
     <t>monster_test_05</t>
   </si>
   <si>
@@ -593,11 +590,81 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
+    <t>1阶段Buff列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addBuffList1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶段Buff列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addBuffList2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶段移除Buff列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeBuffList2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3阶段Buff列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3阶段移除Buff列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addBuffList3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeBuffList3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石国王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0,0,1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,0,0,0</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -615,6 +682,44 @@
       </rPr>
       <t>3,1</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,0,0,0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003,1010,2007</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -741,6 +846,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,22 +1134,22 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="6" customWidth="1"/>
-    <col min="11" max="14" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.25" style="7" customWidth="1"/>
-    <col min="19" max="20" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="10" customWidth="1"/>
-    <col min="23" max="24" width="15.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="6" customWidth="1"/>
+    <col min="12" max="15" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="7" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="7" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="10" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,76 +1166,91 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1142,76 +1264,91 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="U2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1236,43 +1373,31 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1287,29 +1412,34 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="8">
+      <c r="J4" s="6"/>
+      <c r="K4" s="8">
         <v>6</v>
       </c>
-      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1330,29 +1460,34 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="8">
+      <c r="J5" s="6"/>
+      <c r="K5" s="8">
         <v>6</v>
       </c>
-      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1373,29 +1508,34 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="8">
+      <c r="J6" s="6"/>
+      <c r="K6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1416,80 +1556,120 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="8">
+      <c r="J7" s="6"/>
+      <c r="K7" s="8">
         <v>8</v>
       </c>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="I8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2003</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="V8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>2005</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1506,48 +1686,53 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1560,37 +1745,42 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>11</v>
       </c>
-      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
     </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1603,37 +1793,42 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>12</v>
       </c>
-      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
     </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1643,37 +1838,42 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="8">
+      <c r="J12" s="6"/>
+      <c r="K12" s="8">
         <v>13</v>
       </c>
-      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
     </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1683,37 +1883,42 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="8">
+      <c r="J13" s="6"/>
+      <c r="K13" s="8">
         <v>14</v>
       </c>
-      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1723,37 +1928,42 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="8">
+      <c r="J14" s="6"/>
+      <c r="K14" s="8">
         <v>15</v>
       </c>
-      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1763,37 +1973,42 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="8">
+      <c r="J15" s="6"/>
+      <c r="K15" s="8">
         <v>5</v>
       </c>
-      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1803,37 +2018,42 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="8">
+      <c r="J16" s="6"/>
+      <c r="K16" s="8">
         <v>6</v>
       </c>
-      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
     </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1843,37 +2063,42 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="8">
+      <c r="J17" s="6"/>
+      <c r="K17" s="8">
         <v>7</v>
       </c>
-      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
     </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1883,37 +2108,42 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="8">
+      <c r="J18" s="6"/>
+      <c r="K18" s="8">
         <v>8</v>
       </c>
-      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1923,27 +2153,32 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="8">
+      <c r="J19" s="6"/>
+      <c r="K19" s="8">
         <v>9</v>
       </c>
-      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -655,13 +655,103 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,69 +765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,55 +782,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,8 +796,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +910,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,61 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,67 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1043,51 @@
       </top>
       <bottom style="dotted">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,32 +1116,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,184 +1144,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -507,6 +507,106 @@
     </r>
   </si>
   <si>
+    <t>1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>50,1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,0,0,0</t>
+    </r>
+  </si>
+  <si>
+    <t>普通谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>快速打击谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_2</t>
+  </si>
+  <si>
+    <t>憋狠招谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_3</t>
+  </si>
+  <si>
+    <t>普通熵魔</t>
+  </si>
+  <si>
+    <t>shangmo_1</t>
+  </si>
+  <si>
+    <t>快速打击熵魔</t>
+  </si>
+  <si>
+    <t>憋狠招熵魔</t>
+  </si>
+  <si>
+    <t>普通刺猬怪</t>
+  </si>
+  <si>
+    <t>ciweimo_1</t>
+  </si>
+  <si>
+    <t>强壮刺猬怪</t>
+  </si>
+  <si>
+    <t>快速打击刺猬怪</t>
+  </si>
+  <si>
+    <t>憋狠招刺猬怪</t>
+  </si>
+  <si>
+    <t>暴击刺猬怪</t>
+  </si>
+  <si>
+    <t>普通石人2</t>
+  </si>
+  <si>
+    <t>普通石人3</t>
+  </si>
+  <si>
+    <t>普通石人4</t>
+  </si>
+  <si>
+    <t>普通石人5</t>
+  </si>
+  <si>
+    <t>普通石人6</t>
+  </si>
+  <si>
+    <t>巨石国王2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -529,31 +629,6 @@
     </r>
   </si>
   <si>
-    <t>50,1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1,0,0,0</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -576,75 +651,6 @@
     </r>
   </si>
   <si>
-    <t>普通谢尔克</t>
-  </si>
-  <si>
-    <t>xieerke_1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>快速打击谢尔克</t>
-  </si>
-  <si>
-    <t>xieerke_2</t>
-  </si>
-  <si>
-    <t>憋狠招谢尔克</t>
-  </si>
-  <si>
-    <t>xieerke_3</t>
-  </si>
-  <si>
-    <t>普通熵魔</t>
-  </si>
-  <si>
-    <t>shangmo_1</t>
-  </si>
-  <si>
-    <t>快速打击熵魔</t>
-  </si>
-  <si>
-    <t>憋狠招熵魔</t>
-  </si>
-  <si>
-    <t>普通刺猬怪</t>
-  </si>
-  <si>
-    <t>ciweimo_1</t>
-  </si>
-  <si>
-    <t>强壮刺猬怪</t>
-  </si>
-  <si>
-    <t>快速打击刺猬怪</t>
-  </si>
-  <si>
-    <t>憋狠招刺猬怪</t>
-  </si>
-  <si>
-    <t>暴击刺猬怪</t>
-  </si>
-  <si>
-    <t>普通石人2</t>
-  </si>
-  <si>
-    <t>普通石人3</t>
-  </si>
-  <si>
-    <t>普通石人4</t>
-  </si>
-  <si>
-    <t>普通石人5</t>
-  </si>
-  <si>
-    <t>普通石人6</t>
-  </si>
-  <si>
-    <t>巨石国王2</t>
-  </si>
-  <si>
     <t>巨石国王3</t>
   </si>
 </sst>
@@ -655,26 +661,12 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -688,31 +680,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,16 +726,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,31 +750,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,10 +765,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,23 +817,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,12 +835,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -856,7 +868,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,25 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,54 +1024,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -971,54 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,51 +1055,6 @@
       </top>
       <bottom style="dotted">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,20 +1083,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,170 +1123,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1629,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,19 +1656,19 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="2" customWidth="1"/>
-    <col min="12" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="18" width="15.875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="15" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="3" customWidth="1"/>
-    <col min="22" max="23" width="14.125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="3" customWidth="1"/>
-    <col min="25" max="27" width="15.875" style="4" customWidth="1"/>
-    <col min="28" max="29" width="15.25" style="4" customWidth="1"/>
-    <col min="30" max="33" width="14.125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="3" customWidth="1"/>
+    <col min="12" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="4" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="5" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="5" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1663,94 +1681,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1761,94 +1779,94 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1874,32 +1892,32 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:33">
       <c r="A4" s="1">
@@ -1914,34 +1932,34 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="8">
         <v>6</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="1">
@@ -1962,34 +1980,34 @@
       <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="8">
         <v>6</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="1">
@@ -2010,34 +2028,34 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="8">
         <v>7</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="1">
@@ -2058,112 +2076,114 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8">
         <v>8</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
-      <c r="A8" s="1">
+    <row r="8" s="2" customFormat="1" spans="1:33">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="12" t="s">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="10">
         <v>2000</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="14">
         <v>2003</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="10">
+        <v>5</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10">
         <v>2</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="9" t="s">
+      <c r="Z8" s="10">
+        <v>2005</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>2005</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AE8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:33">
       <c r="A9" s="1">
@@ -2187,46 +2207,46 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:33">
       <c r="A10" s="1">
@@ -2247,34 +2267,34 @@
       <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>11</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:33">
       <c r="A11" s="1">
@@ -2295,34 +2315,34 @@
       <c r="F11" s="1">
         <v>15</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>12</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:33">
       <c r="A12" s="1">
@@ -2340,34 +2360,34 @@
       <c r="E12" s="1">
         <v>17</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8">
         <v>13</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:33">
       <c r="A13" s="1">
@@ -2385,34 +2405,34 @@
       <c r="E13" s="1">
         <v>14</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="7">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8">
         <v>14</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:33">
       <c r="A14" s="1">
@@ -2430,34 +2450,34 @@
       <c r="E14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8">
         <v>15</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:33">
       <c r="A15" s="1">
@@ -2475,34 +2495,34 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8">
         <v>5</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:33">
       <c r="A16" s="1">
@@ -2520,34 +2540,34 @@
       <c r="E16" s="1">
         <v>16</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="7">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="8">
         <v>6</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:33">
       <c r="A17" s="1">
@@ -2565,34 +2585,34 @@
       <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="7">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="8">
         <v>7</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
       <c r="A18" s="1">
@@ -2610,34 +2630,34 @@
       <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="8">
         <v>8</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:33">
       <c r="A19" s="1">
@@ -2655,34 +2675,34 @@
       <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="8">
         <v>9</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
@@ -2706,32 +2726,32 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
@@ -2755,32 +2775,32 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22">
@@ -2804,32 +2824,32 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
     </row>
     <row r="23" customFormat="1" spans="1:33">
       <c r="A23">
@@ -2853,46 +2873,46 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>3</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
     </row>
     <row r="24" customFormat="1" spans="1:33">
       <c r="A24">
@@ -2916,52 +2936,52 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>3</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:33">
       <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2976,71 +2996,71 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="3">
         <v>3</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4">
         <v>2</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="4">
         <v>2000</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="12">
         <v>2003</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="4">
         <v>2</v>
       </c>
-      <c r="T25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="4">
+      <c r="T25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="5">
         <v>2</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="5">
         <v>2005</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="5">
         <v>2000</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="5">
         <v>1</v>
       </c>
-      <c r="AC25" s="11" t="s">
+      <c r="AC25" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AD25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:33">
       <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>107</v>
+      <c r="B26" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -3054,64 +3074,64 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4">
         <v>2</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="4">
         <v>2000</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="12">
         <v>2003</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="4">
         <v>2</v>
       </c>
-      <c r="T26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="4">
+      <c r="T26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="5">
         <v>2</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="5">
         <v>2005</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="5">
         <v>2000</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="5">
         <v>1</v>
       </c>
-      <c r="AC26" s="11" t="s">
+      <c r="AC26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AD26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -604,6 +604,12 @@
     <t>普通石人6</t>
   </si>
   <si>
+    <t>普通石人7</t>
+  </si>
+  <si>
+    <t>普通石人8</t>
+  </si>
+  <si>
     <t>巨石国王2</t>
   </si>
   <si>
@@ -659,38 +665,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -710,9 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,14 +716,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -741,48 +723,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,8 +767,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,6 +856,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -868,25 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,49 +910,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,6 +970,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1024,6 +1000,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1031,6 +1025,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,45 +1065,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1113,22 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,176 +1118,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1645,10 +1657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,19 +1668,19 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="3" customWidth="1"/>
-    <col min="12" max="15" width="13" style="3" customWidth="1"/>
-    <col min="16" max="18" width="15.875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="4" customWidth="1"/>
-    <col min="22" max="23" width="14.125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
-    <col min="25" max="27" width="15.875" style="5" customWidth="1"/>
-    <col min="28" max="29" width="15.25" style="5" customWidth="1"/>
-    <col min="30" max="33" width="14.125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
+    <col min="12" max="15" width="13" style="4" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="15" style="5" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="5" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="5" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="6" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1681,94 +1693,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1779,111 +1791,111 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
+    <row r="3" s="1" customFormat="1" spans="1:33">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1">
@@ -1892,246 +1904,260 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
         <v>3</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
-      <c r="A4" s="1">
+    <row r="4" s="2" customFormat="1" spans="1:33">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="8">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
-      <c r="A5" s="1">
+    <row r="5" s="2" customFormat="1" spans="1:33">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9">
         <v>6</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" spans="1:33">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9">
         <v>7</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:33">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="8">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9">
         <v>8</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:33">
-      <c r="A8" s="2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="22" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="16" t="s">
         <v>79</v>
       </c>
       <c r="L8" s="10"/>
@@ -2144,19 +2170,19 @@
       <c r="Q8" s="10">
         <v>2000</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="16">
         <v>2003</v>
       </c>
       <c r="S8" s="10">
         <v>5</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="W8" s="10"/>
@@ -2173,552 +2199,552 @@
       <c r="AB8" s="10">
         <v>4</v>
       </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AC8" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AD8" s="14" t="s">
+      <c r="AD8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="AE8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:33">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
-      <c r="A10" s="1">
+    <row r="10" s="2" customFormat="1" spans="1:33">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>16</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>11</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
-      <c r="A11" s="1">
+    <row r="11" s="2" customFormat="1" spans="1:33">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>12</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" spans="1:33">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="8">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9">
         <v>13</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" spans="1:33">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="8">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9">
         <v>14</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" spans="1:33">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="8">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9">
         <v>15</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
-      <c r="A15" s="1">
+    <row r="15" s="2" customFormat="1" spans="1:33">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" spans="1:33">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="8">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9">
         <v>6</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:33">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="8">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" spans="1:33">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="8">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9">
         <v>8</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
-      <c r="A19" s="1">
+    <row r="19" s="2" customFormat="1" spans="1:33">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="8">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9">
         <v>9</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20">
+    <row r="20" s="1" customFormat="1" spans="1:33">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>22</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2726,48 +2752,62 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
         <v>3</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21">
+    <row r="21" s="1" customFormat="1" spans="1:33">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>40</v>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>34</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2775,48 +2815,62 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
         <v>3</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22">
+    <row r="22" s="1" customFormat="1" spans="1:33">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>55</v>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>46</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2824,314 +2878,454 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
         <v>3</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
     </row>
-    <row r="23" customFormat="1" spans="1:33">
-      <c r="A23">
+    <row r="23" s="3" customFormat="1" spans="1:33">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
     </row>
-    <row r="24" customFormat="1" spans="1:33">
-      <c r="A24">
+    <row r="24" s="3" customFormat="1" spans="1:33">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
+        <v>3</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:33">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>82</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
+        <v>3</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:33">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>94</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12">
+        <v>3</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:33">
+      <c r="A27" s="3">
+        <v>30</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>140</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="12">
+        <v>3</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>2000</v>
+      </c>
+      <c r="R27" s="18">
+        <v>2003</v>
+      </c>
+      <c r="S27" s="12">
+        <v>2</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="U27" s="12"/>
+      <c r="V27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>2005</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="AE27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:33">
+      <c r="A28" s="2">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="4">
         <v>3</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
-      <c r="A25" s="1">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>200</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="K28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5">
         <v>2</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q28" s="5">
         <v>2000</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R28" s="15">
         <v>2003</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S28" s="5">
         <v>2</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="12" t="s">
+      <c r="T28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="5">
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="6">
         <v>2</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="Z28" s="6">
         <v>2005</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA28" s="6">
         <v>2000</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB28" s="6">
         <v>1</v>
       </c>
-      <c r="AC25" s="16" t="s">
+      <c r="AC28" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AD25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE25" s="16" t="s">
+      <c r="AD28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
-      <c r="A26" s="1">
-        <v>31</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>300</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R26" s="12">
-        <v>2003</v>
-      </c>
-      <c r="S26" s="4">
-        <v>2</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>2005</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -659,21 +659,64 @@
   <si>
     <t>巨石国王3</t>
   </si>
+  <si>
+    <t>威力石人</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>1500,10</t>
+  </si>
+  <si>
+    <t>反弹石人</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1501,1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -693,8 +736,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -702,7 +774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,30 +788,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,30 +813,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,22 +837,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,7 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,6 +901,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,13 +979,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,67 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,55 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1086,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1080,17 +1134,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,24 +1160,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1139,25 +1169,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1165,148 +1186,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,13 +1678,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -3327,6 +3348,148 @@
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
     </row>
+    <row r="29" s="1" customFormat="1" spans="1:33">
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
+        <v>3</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10">
+        <v>1</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:33">
+      <c r="A30" s="1">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1017</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACA366-406F-4704-8BCB-B8A4618DBC5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -684,170 +690,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,8 +710,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,186 +738,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1085,251 +778,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1351,70 +802,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1672,19 +1076,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1704,7 +1108,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1777,35 +1181,35 @@
       <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1875,35 +1279,35 @@
       <c r="X2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1966,7 +1370,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2008,7 +1412,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2056,7 +1460,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2104,7 +1508,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2152,7 +1556,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2172,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="19" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="10">
@@ -2232,7 +1636,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2295,7 +1699,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2343,7 +1747,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2391,7 +1795,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2436,7 +1840,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2481,7 +1885,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2526,7 +1930,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2571,7 +1975,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2616,7 +2020,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2661,7 +2065,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2706,7 +2110,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2751,7 +2155,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2814,7 +2218,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2877,7 +2281,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2940,7 +2344,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -2969,41 +2373,41 @@
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3032,41 +2436,41 @@
       <c r="J24" s="12">
         <v>3</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3095,41 +2499,41 @@
       <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3158,41 +2562,41 @@
       <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -3212,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="20" t="s">
         <v>78</v>
       </c>
       <c r="J27" s="12">
         <v>3</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>79</v>
       </c>
       <c r="L27" s="12"/>
@@ -3231,17 +2635,17 @@
       <c r="Q27" s="12">
         <v>2000</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="17">
         <v>2003</v>
       </c>
       <c r="S27" s="12">
         <v>2</v>
       </c>
-      <c r="T27" s="18" t="s">
+      <c r="T27" s="17" t="s">
         <v>109</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="18" t="s">
+      <c r="V27" s="17" t="s">
         <v>82</v>
       </c>
       <c r="W27" s="12"/>
@@ -3258,19 +2662,19 @@
       <c r="AB27" s="12">
         <v>1</v>
       </c>
-      <c r="AC27" s="18" t="s">
+      <c r="AC27" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AD27" s="18" t="s">
+      <c r="AD27" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" s="18" t="s">
+      <c r="AE27" s="17" t="s">
         <v>82</v>
       </c>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>31</v>
       </c>
@@ -3290,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="21" t="s">
         <v>78</v>
       </c>
       <c r="J28" s="4">
@@ -3336,19 +2740,19 @@
       <c r="AB28" s="6">
         <v>1</v>
       </c>
-      <c r="AC28" s="21" t="s">
+      <c r="AC28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AD28" s="21" t="s">
+      <c r="AD28" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AE28" s="21" t="s">
+      <c r="AE28" s="18" t="s">
         <v>82</v>
       </c>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>60</v>
       </c>
@@ -3373,7 +2777,9 @@
       <c r="H29" s="10">
         <v>0</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="10">
+        <v>2010</v>
+      </c>
       <c r="J29" s="10">
         <v>3</v>
       </c>
@@ -3392,9 +2798,7 @@
       <c r="O29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="10">
-        <v>3</v>
-      </c>
+      <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10">
@@ -3425,7 +2829,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>61</v>
       </c>
@@ -3491,9 +2895,9 @@
       <c r="AG30" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACA366-406F-4704-8BCB-B8A4618DBC5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -458,10 +452,13 @@
     <t>1,1,0,0,5</t>
   </si>
   <si>
+    <t>5,10|10,7</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
     <t>5,10|10,5</t>
-  </si>
-  <si>
-    <t>23,1</t>
   </si>
   <si>
     <t>强壮石人</t>
@@ -690,11 +687,161 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -710,14 +857,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,24 +879,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -778,9 +1105,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -802,23 +1371,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1076,19 +1692,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1108,7 +1724,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,35 +1797,35 @@
       <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AG1" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1279,35 +1895,35 @@
       <c r="X2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1962,7 @@
         <v>69</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>69</v>
@@ -1370,7 +1986,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1412,15 +2028,15 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1460,15 +2076,15 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1508,15 +2124,15 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1556,15 +2172,15 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1576,14 +2192,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="19" t="s">
-        <v>78</v>
+      <c r="I8" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="J8" s="10">
         <v>3</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1602,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1625,26 +2241,26 @@
         <v>4</v>
       </c>
       <c r="AC8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE8" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1666,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>68</v>
@@ -1675,7 +2291,7 @@
         <v>69</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>69</v>
@@ -1699,15 +2315,15 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1747,15 +2363,15 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1795,15 +2411,15 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1840,15 +2456,15 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1885,15 +2501,15 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1930,15 +2546,15 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1975,15 +2591,15 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2020,15 +2636,15 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2065,15 +2681,15 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2110,15 +2726,15 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2155,12 +2771,12 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
@@ -2194,7 +2810,7 @@
         <v>69</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>69</v>
@@ -2218,12 +2834,12 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -2257,7 +2873,7 @@
         <v>69</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>69</v>
@@ -2281,12 +2897,12 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -2320,7 +2936,7 @@
         <v>69</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>69</v>
@@ -2344,12 +2960,12 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
@@ -2373,46 +2989,46 @@
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="17" t="s">
+      <c r="N23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
@@ -2436,46 +3052,46 @@
       <c r="J24" s="12">
         <v>3</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="17" t="s">
+      <c r="N24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
@@ -2499,46 +3115,46 @@
       <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="17" t="s">
+      <c r="N25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -2562,49 +3178,49 @@
       <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="17" t="s">
+      <c r="N26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="3" customFormat="1" spans="1:33">
       <c r="A27" s="3">
         <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2616,14 +3232,14 @@
         <v>1</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="20" t="s">
-        <v>78</v>
+      <c r="I27" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="J27" s="12">
         <v>3</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>79</v>
+      <c r="K27" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -2635,18 +3251,18 @@
       <c r="Q27" s="12">
         <v>2000</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="18">
         <v>2003</v>
       </c>
       <c r="S27" s="12">
         <v>2</v>
       </c>
-      <c r="T27" s="17" t="s">
-        <v>109</v>
+      <c r="T27" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="17" t="s">
-        <v>82</v>
+      <c r="V27" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
@@ -2662,27 +3278,27 @@
       <c r="AB27" s="12">
         <v>1</v>
       </c>
-      <c r="AC27" s="17" t="s">
+      <c r="AC27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE27" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE27" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>31</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -2694,14 +3310,14 @@
         <v>0</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="21" t="s">
-        <v>78</v>
+      <c r="I28" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="J28" s="4">
         <v>3</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2720,11 +3336,11 @@
         <v>2</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -2740,24 +3356,24 @@
       <c r="AB28" s="6">
         <v>1</v>
       </c>
-      <c r="AC28" s="18" t="s">
+      <c r="AC28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE28" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="AD28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE28" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="1" customFormat="1" spans="1:33">
       <c r="A29" s="1">
         <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -2784,16 +3400,16 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>69</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>69</v>
@@ -2805,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V29" s="16" t="s">
         <v>69</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="X29" s="16" t="s">
         <v>69</v>
@@ -2829,12 +3445,12 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="1" customFormat="1" spans="1:33">
       <c r="A30" s="1">
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -2861,16 +3477,16 @@
         <v>2</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>69</v>
@@ -2895,9 +3511,9 @@
       <c r="AG30" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -449,7 +449,7 @@
     <t>monster_test_01</t>
   </si>
   <si>
-    <t>1,1,0,0,5</t>
+    <t>2,1,0,0,5</t>
   </si>
   <si>
     <t>5,10|10,7</t>
@@ -690,14 +690,37 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -710,6 +733,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -718,24 +742,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,14 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +774,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +811,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,55 +839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -858,7 +858,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,7 +897,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,25 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,97 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,24 +1072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1100,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,21 +1161,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,11 +1182,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,49 +1197,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,133 +1215,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,7 +1695,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2215,7 +2209,7 @@
         <v>2003</v>
       </c>
       <c r="S8" s="10">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>81</v>
@@ -2238,7 +2232,7 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="16" t="s">
         <v>84</v>
@@ -3255,7 +3249,7 @@
         <v>2003</v>
       </c>
       <c r="S27" s="12">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="T27" s="18" t="s">
         <v>110</v>
@@ -3276,7 +3270,7 @@
         <v>2000</v>
       </c>
       <c r="AB27" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="18" t="s">
         <v>84</v>
@@ -3333,7 +3327,7 @@
         <v>2003</v>
       </c>
       <c r="S28" s="5">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="T28" s="15" t="s">
         <v>110</v>
@@ -3354,7 +3348,7 @@
         <v>2000</v>
       </c>
       <c r="AB28" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC28" s="21" t="s">
         <v>84</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -690,9 +690,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -710,9 +710,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,16 +786,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,60 +817,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,10 +840,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,7 +897,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,169 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,21 +1100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1135,6 +1120,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,21 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1197,151 +1182,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -690,9 +690,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -710,46 +710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +727,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,8 +749,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +766,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,23 +819,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,10 +840,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,7 +897,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,13 +969,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,151 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,6 +1100,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1120,21 +1135,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,6 +1165,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1182,31 +1197,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,133 +1215,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -613,6 +613,12 @@
     <t>普通石人8</t>
   </si>
   <si>
+    <t>普通石人9</t>
+  </si>
+  <si>
+    <t>普通石人10</t>
+  </si>
+  <si>
     <t>巨石国王2</t>
   </si>
   <si>
@@ -683,6 +689,12 @@
   <si>
     <t>1501,1</t>
   </si>
+  <si>
+    <t>威力石人2</t>
+  </si>
+  <si>
+    <t>反弹石人2</t>
+  </si>
 </sst>
 </file>
 
@@ -691,8 +703,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -710,46 +722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +738,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +777,46 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,55 +837,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,13 +909,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,73 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,25 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,36 +1084,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,6 +1115,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1124,6 +1145,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1139,17 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,24 +1191,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,141 +1227,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1361,12 +1374,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1692,10 +1707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1703,19 +1718,19 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
-    <col min="12" max="15" width="13" style="4" customWidth="1"/>
-    <col min="16" max="18" width="15.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="15" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="5" customWidth="1"/>
-    <col min="22" max="23" width="14.125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="5" customWidth="1"/>
-    <col min="25" max="27" width="15.875" style="6" customWidth="1"/>
-    <col min="28" max="29" width="15.25" style="6" customWidth="1"/>
-    <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="5" customWidth="1"/>
+    <col min="12" max="15" width="13" style="5" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="15" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="6" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="6" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="7" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="7" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1728,94 +1743,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1826,94 +1841,94 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="24" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1939,46 +1954,46 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
@@ -1993,34 +2008,34 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="10">
         <v>6</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
@@ -2041,34 +2056,34 @@
       <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="10">
         <v>6</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
@@ -2089,34 +2104,34 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="10">
         <v>7</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
@@ -2137,40 +2152,40 @@
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="10">
         <v>8</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2185,66 +2200,66 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>3</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="11">
         <v>2000</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="18">
         <v>2003</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="11">
         <v>4.5</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11">
         <v>2</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="11">
         <v>2005</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="11">
         <v>2000</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="11">
         <v>3</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AC8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AE8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
@@ -2268,46 +2283,46 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
@@ -2328,34 +2343,34 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>11</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
@@ -2376,34 +2391,34 @@
       <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
         <v>12</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
@@ -2421,34 +2436,34 @@
       <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10">
         <v>13</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
@@ -2466,34 +2481,34 @@
       <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10">
         <v>14</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
@@ -2511,34 +2526,34 @@
       <c r="E14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="9">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10">
         <v>15</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
@@ -2556,34 +2571,34 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10">
         <v>5</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
@@ -2601,34 +2616,34 @@
       <c r="E16" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10">
         <v>6</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
@@ -2646,34 +2661,34 @@
       <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
@@ -2691,34 +2706,34 @@
       <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10">
         <v>8</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
@@ -2736,34 +2751,34 @@
       <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10">
         <v>9</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
@@ -2787,46 +2802,46 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
         <v>3</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="1">
@@ -2850,46 +2865,46 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>3</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="1">
@@ -2913,46 +2928,46 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
         <v>3</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
@@ -2976,46 +2991,46 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12">
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
         <v>3</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
@@ -3039,46 +3054,46 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
         <v>3</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
@@ -3102,46 +3117,46 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
@@ -3165,344 +3180,612 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
         <v>3</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:33">
-      <c r="A27" s="3">
+    <row r="27" s="4" customFormat="1" spans="1:33">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <v>3</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:33">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>92</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>3</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:33">
+      <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>120</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="23" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J29" s="13">
         <v>3</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q29" s="13">
         <v>2000</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R29" s="20">
         <v>2003</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S29" s="13">
         <v>4.5</v>
       </c>
-      <c r="T27" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="U27" s="12"/>
-      <c r="V27" s="18" t="s">
+      <c r="T29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12">
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13">
         <v>2</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z29" s="13">
         <v>2005</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA29" s="13">
         <v>2000</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB29" s="13">
         <v>3</v>
       </c>
-      <c r="AC27" s="18" t="s">
+      <c r="AC29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD27" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE27" s="18" t="s">
+      <c r="AD29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
-      <c r="A28" s="2">
+    <row r="30" s="2" customFormat="1" spans="1:33">
+      <c r="A30" s="2">
         <v>31</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>200</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2000</v>
+      </c>
+      <c r="R30" s="17">
+        <v>2003</v>
+      </c>
+      <c r="S30" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="T30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>300</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="U30" s="6"/>
+      <c r="V30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>2005</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AB30" s="7">
         <v>3</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5">
+      <c r="AC30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD30" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:33">
+      <c r="A31" s="1">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2010</v>
+      </c>
+      <c r="J31" s="11">
+        <v>3</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11">
+        <v>1</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:33">
+      <c r="A32" s="1">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1017</v>
+      </c>
+      <c r="J32" s="11">
         <v>2</v>
       </c>
-      <c r="Q28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="R28" s="15">
-        <v>2003</v>
-      </c>
-      <c r="S28" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="6">
+      <c r="K32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:33">
+      <c r="A33" s="1">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>2010</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11">
+        <v>1</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:33">
+      <c r="A34" s="1">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1017</v>
+      </c>
+      <c r="J34" s="11">
         <v>2</v>
       </c>
-      <c r="Z28" s="6">
-        <v>2005</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>2000</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD28" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
-      <c r="A29" s="1">
-        <v>60</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>2010</v>
-      </c>
-      <c r="J29" s="10">
-        <v>3</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M29" s="16" t="s">
+      <c r="K34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10">
-        <v>1</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
-      <c r="A30" s="1">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1017</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -701,8 +701,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -710,28 +710,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -746,17 +724,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,55 +738,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,9 +780,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,43 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,43 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,13 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,31 +1041,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,11 +1112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,6 +1131,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1148,34 +1180,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,31 +1209,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,142 +1227,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1710,7 +1709,7 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1718,19 +1717,19 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="5" customWidth="1"/>
-    <col min="12" max="15" width="13" style="5" customWidth="1"/>
-    <col min="16" max="18" width="15.875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="15" style="6" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="6" customWidth="1"/>
-    <col min="22" max="23" width="14.125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="6" customWidth="1"/>
-    <col min="25" max="27" width="15.875" style="7" customWidth="1"/>
-    <col min="28" max="29" width="15.25" style="7" customWidth="1"/>
-    <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
+    <col min="12" max="15" width="13" style="4" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="15" style="5" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="5" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="5" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="6" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1743,94 +1742,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1841,94 +1840,94 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1954,46 +1953,48 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
-        <v>3</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2013</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
@@ -2008,34 +2009,34 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="10">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
@@ -2056,34 +2057,34 @@
       <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="10">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9">
         <v>6</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
@@ -2104,34 +2105,34 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="10">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9">
         <v>7</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
@@ -2152,40 +2153,40 @@
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="10">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9">
         <v>8</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2200,66 +2201,66 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>2000</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <v>2003</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>4.5</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11">
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10">
         <v>2</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="10">
         <v>2005</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="10">
         <v>2000</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="10">
         <v>3</v>
       </c>
-      <c r="AC8" s="18" t="s">
+      <c r="AC8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
@@ -2283,46 +2284,46 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
@@ -2343,34 +2344,34 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>11</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
@@ -2391,34 +2392,34 @@
       <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>12</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
@@ -2436,34 +2437,34 @@
       <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="10">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9">
         <v>13</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
@@ -2481,34 +2482,34 @@
       <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="10">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9">
         <v>14</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
@@ -2526,34 +2527,34 @@
       <c r="E14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="10">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9">
         <v>15</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
@@ -2571,34 +2572,34 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="10">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
@@ -2616,34 +2617,34 @@
       <c r="E16" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="10">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9">
         <v>6</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
@@ -2661,34 +2662,34 @@
       <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="10">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9">
         <v>7</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
@@ -2706,34 +2707,34 @@
       <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="10">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9">
         <v>8</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
@@ -2751,34 +2752,34 @@
       <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="10">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9">
         <v>9</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
@@ -2802,46 +2803,46 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
         <v>3</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="1">
@@ -2865,46 +2866,46 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
         <v>3</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="1">
@@ -2928,46 +2929,46 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
         <v>3</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
@@ -2991,46 +2992,46 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13">
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
@@ -3054,46 +3055,46 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13">
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
         <v>3</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
@@ -3117,46 +3118,46 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13">
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
@@ -3180,178 +3181,178 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13">
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:33">
-      <c r="A27" s="4">
+    <row r="27" s="2" customFormat="1" spans="1:33">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>82</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14">
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
         <v>3</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:33">
-      <c r="A28" s="4">
+    <row r="28" s="2" customFormat="1" spans="1:33">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>92</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3366,70 +3367,70 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>3</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12">
         <v>2</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="12">
         <v>2000</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="19">
         <v>2003</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <v>4.5</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="20" t="s">
+      <c r="U29" s="12"/>
+      <c r="V29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13">
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12">
         <v>2</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="12">
         <v>2005</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="12">
         <v>2000</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="12">
         <v>3</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AC29" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3444,64 +3445,64 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="27" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>3</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5">
         <v>2</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5">
         <v>2000</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="16">
         <v>2003</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>4.5</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="U30" s="6"/>
-      <c r="V30" s="17" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="7">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="6">
         <v>2</v>
       </c>
-      <c r="Z30" s="7">
+      <c r="Z30" s="6">
         <v>2005</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="6">
         <v>2000</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AB30" s="6">
         <v>3</v>
       </c>
-      <c r="AC30" s="24" t="s">
+      <c r="AC30" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="24" t="s">
+      <c r="AD30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AE30" s="24" t="s">
+      <c r="AE30" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="1">
@@ -3525,60 +3526,60 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
         <v>2010</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>3</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10">
         <v>1</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="U31" s="18" t="s">
+      <c r="U31" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="V31" s="18" t="s">
+      <c r="V31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="W31" s="18" t="s">
+      <c r="W31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="X31" s="18" t="s">
+      <c r="X31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="1">
@@ -3602,48 +3603,48 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>0</v>
       </c>
       <c r="I32">
         <v>1017</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>2</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:33">
       <c r="A33" s="1">
@@ -3667,60 +3668,60 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>2010</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="10">
         <v>2.5</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10">
         <v>1</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="T33" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="U33" s="18" t="s">
+      <c r="U33" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="V33" s="18" t="s">
+      <c r="V33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="W33" s="18" t="s">
+      <c r="W33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="X33" s="18" t="s">
+      <c r="X33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:33">
       <c r="A34" s="1">
@@ -3744,48 +3745,48 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>0</v>
       </c>
       <c r="I34">
         <v>1017</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>2</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -695,21 +695,32 @@
   <si>
     <t>反弹石人2</t>
   </si>
+  <si>
+    <t>憨憨石人</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,52 +733,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,7 +749,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,16 +763,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,6 +794,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -853,7 +826,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +972,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +1014,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,97 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,26 +1115,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,26 +1171,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,24 +1204,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,133 +1230,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1706,10 +1709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1956,9 +1959,7 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <v>2013</v>
-      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="10">
         <v>2</v>
       </c>
@@ -3788,6 +3789,71 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
     </row>
+    <row r="35" s="1" customFormat="1" spans="1:33">
+      <c r="A35" s="1">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2013</v>
+      </c>
+      <c r="J35" s="10">
+        <v>3</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -601,7 +601,7 @@
     <t>普通石人4</t>
   </si>
   <si>
-    <t>普通石人5</t>
+    <t>弃牌石人5</t>
   </si>
   <si>
     <t>普通石人6</t>
@@ -704,10 +704,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -718,8 +718,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -733,15 +756,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,42 +779,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,25 +809,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,9 +848,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -912,7 +912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +960,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,43 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,61 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1115,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1139,32 +1169,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,8 +1183,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,19 +1207,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,133 +1230,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>67</v>
@@ -2996,7 +2996,9 @@
       <c r="H23" s="12">
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="12">
+        <v>2012</v>
+      </c>
       <c r="J23" s="12">
         <v>3</v>
       </c>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05620953-2A0A-4411-BF93-356D131CB90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,13 +55,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -63,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,13 +80,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -86,6 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,13 +105,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -109,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -132,6 +147,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -139,13 +155,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -155,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -162,13 +180,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -177,6 +196,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -187,13 +207,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -202,6 +223,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -214,13 +236,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -229,6 +252,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -493,6 +517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,6 +528,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -524,6 +550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,6 +561,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -627,6 +655,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,6 +666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -649,6 +679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -659,6 +690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,18 +730,16 @@
   <si>
     <t>憨憨石人</t>
   </si>
+  <si>
+    <t>1,0,0,0,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,159 +751,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,204 +797,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1114,253 +837,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1381,71 +862,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1703,19 +1138,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1735,7 +1170,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1808,35 +1243,35 @@
       <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1906,35 +1341,35 @@
       <c r="X2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1997,7 +1432,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2039,7 +1474,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2087,7 +1522,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2135,7 +1570,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2183,7 +1618,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2203,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="10">
@@ -2263,7 +1698,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2326,7 +1761,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2374,7 +1809,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2422,7 +1857,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2467,7 +1902,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2512,7 +1947,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2557,7 +1992,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2602,7 +2037,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2647,7 +2082,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2692,7 +2127,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2737,7 +2172,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2782,7 +2217,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2845,7 +2280,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2908,7 +2343,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2971,7 +2406,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3002,41 +2437,41 @@
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3065,41 +2500,41 @@
       <c r="J24" s="12">
         <v>3</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3128,41 +2563,41 @@
       <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3191,41 +2626,41 @@
       <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3254,41 +2689,41 @@
       <c r="J27" s="13">
         <v>3</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3317,41 +2752,41 @@
       <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3371,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="22" t="s">
         <v>79</v>
       </c>
       <c r="J29" s="12">
         <v>3</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="18" t="s">
         <v>80</v>
       </c>
       <c r="L29" s="12"/>
@@ -3390,17 +2825,17 @@
       <c r="Q29" s="12">
         <v>2000</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="18">
         <v>2003</v>
       </c>
       <c r="S29" s="12">
         <v>4.5</v>
       </c>
-      <c r="T29" s="19" t="s">
+      <c r="T29" s="18" t="s">
         <v>112</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="19" t="s">
+      <c r="V29" s="18" t="s">
         <v>83</v>
       </c>
       <c r="W29" s="12"/>
@@ -3417,19 +2852,19 @@
       <c r="AB29" s="12">
         <v>3</v>
       </c>
-      <c r="AC29" s="19" t="s">
+      <c r="AC29" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="19" t="s">
+      <c r="AD29" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="AE29" s="19" t="s">
+      <c r="AE29" s="18" t="s">
         <v>83</v>
       </c>
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3449,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="J30" s="4">
@@ -3495,19 +2930,19 @@
       <c r="AB30" s="6">
         <v>3</v>
       </c>
-      <c r="AC30" s="23" t="s">
+      <c r="AC30" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="23" t="s">
+      <c r="AD30" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AE30" s="23" t="s">
+      <c r="AE30" s="20" t="s">
         <v>83</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>60</v>
       </c>
@@ -3521,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3538,8 +2973,8 @@
       <c r="J31" s="10">
         <v>3</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>116</v>
+      <c r="K31" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>117</v>
@@ -3584,7 +3019,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>61</v>
       </c>
@@ -3649,7 +3084,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>62</v>
       </c>
@@ -3663,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3726,7 +3161,7 @@
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>63</v>
       </c>
@@ -3791,7 +3226,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>100</v>
       </c>
@@ -3857,9 +3292,9 @@
       <c r="AG35" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05620953-2A0A-4411-BF93-356D131CB90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,14 +47,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -72,7 +63,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,14 +70,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -97,7 +86,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +93,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -122,7 +109,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -147,7 +132,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -155,14 +139,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -172,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,14 +162,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -196,7 +177,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,14 +187,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -223,7 +202,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -236,14 +214,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -252,7 +229,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -270,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -517,7 +493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,7 +503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -550,7 +524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,12 +622,20 @@
     <t>巨石国王2</t>
   </si>
   <si>
+    <t>2003,1010,2007,2016</t>
+  </si>
+  <si>
+    <t>2020,2018</t>
+  </si>
+  <si>
+    <t>2003,2016</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +646,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -679,7 +658,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -690,7 +668,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,6 +678,9 @@
     <t>巨石国王3</t>
   </si>
   <si>
+    <t>2003,1010,2007,2016,2013</t>
+  </si>
+  <si>
     <t>威力石人</t>
   </si>
   <si>
@@ -722,24 +702,32 @@
     <t>1501,1</t>
   </si>
   <si>
-    <t>威力石人2</t>
-  </si>
-  <si>
-    <t>反弹石人2</t>
+    <t>憨憨石人2</t>
+  </si>
+  <si>
+    <t>2013,2016</t>
+  </si>
+  <si>
+    <t>弃牌回血石人</t>
+  </si>
+  <si>
+    <t>2012,2016,2021</t>
   </si>
   <si>
     <t>憨憨石人</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,35 +736,162 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,24 +912,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -837,11 +1132,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -856,31 +1393,80 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1138,19 +1724,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1170,7 +1756,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,35 +1829,35 @@
       <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1341,35 +1927,35 @@
       <c r="X2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1383,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1432,7 +2018,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1474,7 +2060,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1522,7 +2108,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1570,7 +2156,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1618,7 +2204,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1638,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="27" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="10">
@@ -1698,7 +2284,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1761,7 +2347,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1809,7 +2395,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1857,7 +2443,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1902,7 +2488,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1947,7 +2533,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1992,7 +2578,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2037,7 +2623,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2082,7 +2668,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2127,7 +2713,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2172,7 +2758,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2217,7 +2803,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2280,133 +2866,133 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" s="2" customFormat="1" spans="1:33">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>30</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
         <v>3</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" spans="1:33">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>40</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
         <v>3</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -2428,50 +3014,50 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>2012</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="13">
         <v>3</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -2493,48 +3079,48 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
         <v>3</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -2556,48 +3142,48 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -2619,48 +3205,48 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
         <v>3</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" spans="1:33">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -2680,13 +3266,15 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2016</v>
+      </c>
+      <c r="J27" s="12">
         <v>3</v>
       </c>
       <c r="K27" s="19" t="s">
@@ -2704,26 +3292,26 @@
       <c r="O27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -2743,13 +3331,15 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>2016</v>
+      </c>
+      <c r="J28" s="12">
         <v>3</v>
       </c>
       <c r="K28" s="19" t="s">
@@ -2767,26 +3357,26 @@
       <c r="O28" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -2805,71 +3395,71 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="H29" s="13"/>
+      <c r="I29" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="12">
-        <v>2000</v>
-      </c>
-      <c r="R29" s="18">
-        <v>2003</v>
-      </c>
-      <c r="S29" s="12">
+      <c r="Q29" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29" s="13">
         <v>4.5</v>
       </c>
-      <c r="T29" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U29" s="12"/>
-      <c r="V29" s="18" t="s">
+      <c r="T29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12">
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13">
         <v>2</v>
       </c>
-      <c r="Z29" s="12">
-        <v>2005</v>
-      </c>
-      <c r="AA29" s="12">
-        <v>2000</v>
-      </c>
-      <c r="AB29" s="12">
+      <c r="Z29" s="13">
+        <v>2019</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>2018</v>
+      </c>
+      <c r="AB29" s="13">
         <v>3</v>
       </c>
-      <c r="AC29" s="18" t="s">
+      <c r="AC29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE29" s="18" t="s">
+      <c r="AD29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
@@ -2878,76 +3468,76 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="H30" s="12"/>
+      <c r="I30" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="5">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12">
         <v>2</v>
       </c>
-      <c r="Q30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="R30" s="16">
-        <v>2003</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="Q30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S30" s="12">
         <v>4.5</v>
       </c>
-      <c r="T30" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="16" t="s">
+      <c r="T30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30" s="12"/>
+      <c r="V30" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="6">
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12">
         <v>2</v>
       </c>
-      <c r="Z30" s="6">
-        <v>2005</v>
-      </c>
-      <c r="AA30" s="6">
-        <v>2000</v>
-      </c>
-      <c r="AB30" s="6">
+      <c r="Z30" s="12">
+        <v>2019</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>2018</v>
+      </c>
+      <c r="AB30" s="12">
         <v>3</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AC30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE30" s="20" t="s">
+      <c r="AD30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE30" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="1">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -2973,11 +3563,11 @@
       <c r="J31" s="10">
         <v>3</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>125</v>
+      <c r="K31" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>69</v>
@@ -2995,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="V31" s="17" t="s">
         <v>69</v>
@@ -3019,12 +3609,12 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="1">
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -3051,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N32" s="17" t="s">
         <v>70</v>
@@ -3084,154 +3674,142 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" s="2" customFormat="1" spans="1:33">
+      <c r="A33" s="2">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:33">
+      <c r="A34" s="2">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
         <v>100</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>2010</v>
-      </c>
-      <c r="J33" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="M33" s="17" t="s">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10">
-        <v>1</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="U33" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1017</v>
-      </c>
-      <c r="J34" s="10">
-        <v>2</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-    </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" spans="1:33">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>74</v>
@@ -3292,9 +3870,9 @@
       <c r="AG35" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3764433-3197-4701-A8F5-88B8CCC54E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView xWindow="4320" yWindow="1350" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -720,163 +726,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,8 +746,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,204 +774,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1132,251 +814,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1399,74 +839,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1724,19 +1117,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1756,7 +1149,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1829,35 +1222,35 @@
       <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1927,35 +1320,35 @@
       <c r="X2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1969,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2018,7 +1411,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2060,7 +1453,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2108,7 +1501,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2156,7 +1549,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2204,7 +1597,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2224,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="10">
@@ -2284,7 +1677,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2347,7 +1740,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2395,7 +1788,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2443,7 +1836,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2488,7 +1881,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2533,7 +1926,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2578,7 +1971,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2623,7 +2016,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2668,7 +2061,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2713,7 +2106,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2758,7 +2151,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2803,7 +2196,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2866,7 +2259,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -2895,41 +2288,41 @@
       <c r="J21" s="12">
         <v>3</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -2958,41 +2351,41 @@
       <c r="J22" s="12">
         <v>3</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3023,41 +2416,41 @@
       <c r="J23" s="13">
         <v>3</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3086,41 +2479,41 @@
       <c r="J24" s="13">
         <v>3</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3149,41 +2542,41 @@
       <c r="J25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3212,41 +2605,41 @@
       <c r="J26" s="13">
         <v>3</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3277,41 +2670,41 @@
       <c r="J27" s="12">
         <v>3</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3342,41 +2735,41 @@
       <c r="J28" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3396,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>112</v>
       </c>
       <c r="J29" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>80</v>
       </c>
       <c r="L29" s="13"/>
@@ -3412,20 +2805,20 @@
       <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="21" t="s">
         <v>114</v>
       </c>
       <c r="S29" s="13">
         <v>4.5</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="19" t="s">
         <v>115</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="20" t="s">
+      <c r="V29" s="19" t="s">
         <v>83</v>
       </c>
       <c r="W29" s="13"/>
@@ -3442,19 +2835,19 @@
       <c r="AB29" s="13">
         <v>3</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AC29" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="19" t="s">
         <v>83</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3474,13 +2867,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="26" t="s">
         <v>118</v>
       </c>
       <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="18" t="s">
         <v>80</v>
       </c>
       <c r="L30" s="12"/>
@@ -3490,20 +2883,20 @@
       <c r="P30" s="12">
         <v>2</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="22" t="s">
         <v>114</v>
       </c>
       <c r="S30" s="12">
         <v>4.5</v>
       </c>
-      <c r="T30" s="19" t="s">
+      <c r="T30" s="18" t="s">
         <v>115</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="19" t="s">
+      <c r="V30" s="18" t="s">
         <v>83</v>
       </c>
       <c r="W30" s="12"/>
@@ -3520,19 +2913,19 @@
       <c r="AB30" s="12">
         <v>3</v>
       </c>
-      <c r="AC30" s="19" t="s">
+      <c r="AC30" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="19" t="s">
+      <c r="AD30" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AE30" s="19" t="s">
+      <c r="AE30" s="18" t="s">
         <v>83</v>
       </c>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>60</v>
       </c>
@@ -3609,7 +3002,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>61</v>
       </c>
@@ -3674,7 +3067,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>62</v>
       </c>
@@ -3699,47 +3092,47 @@
       <c r="H33" s="12">
         <v>0</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="20" t="s">
         <v>127</v>
       </c>
       <c r="J33" s="12">
         <v>2.5</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>63</v>
       </c>
@@ -3764,47 +3157,47 @@
       <c r="H34" s="12">
         <v>0</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="20" t="s">
         <v>129</v>
       </c>
       <c r="J34" s="12">
         <v>3.5</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="O34" s="18" t="s">
         <v>69</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>100</v>
       </c>
@@ -3870,9 +3263,9 @@
       <c r="AG35" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3764433-3197-4701-A8F5-88B8CCC54E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E5198-9730-447F-9EEB-7BA58677AEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1350" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2942,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>2010</v>
       </c>
       <c r="J31" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>120</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E5198-9730-447F-9EEB-7BA58677AEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -726,11 +720,161 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -746,14 +890,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,24 +912,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
+        <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -814,9 +1138,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -839,27 +1405,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1117,19 +1730,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1149,7 +1762,7 @@
     <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,35 +1835,35 @@
       <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1320,35 +1933,35 @@
       <c r="X2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1362,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1411,7 +2024,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1453,7 +2066,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1501,7 +2114,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1549,7 +2162,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1597,7 +2210,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1617,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="10">
@@ -1677,7 +2290,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1740,7 +2353,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1788,7 +2401,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1836,7 +2449,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1881,7 +2494,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1926,7 +2539,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1971,7 +2584,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2016,7 +2629,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2061,7 +2674,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2106,7 +2719,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2151,7 +2764,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2196,7 +2809,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2259,7 +2872,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="2" customFormat="1" spans="1:33">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -2288,41 +2901,41 @@
       <c r="J21" s="12">
         <v>3</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" spans="1:33">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -2351,41 +2964,41 @@
       <c r="J22" s="12">
         <v>3</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -2416,41 +3029,41 @@
       <c r="J23" s="13">
         <v>3</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="20" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -2479,41 +3092,41 @@
       <c r="J24" s="13">
         <v>3</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="20" t="s">
         <v>69</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -2542,41 +3155,41 @@
       <c r="J25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="20" t="s">
         <v>69</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -2605,41 +3218,41 @@
       <c r="J26" s="13">
         <v>3</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="20" t="s">
         <v>69</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" spans="1:33">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -2670,41 +3283,41 @@
       <c r="J27" s="12">
         <v>3</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -2735,41 +3348,41 @@
       <c r="J28" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -2789,13 +3402,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="28" t="s">
         <v>112</v>
       </c>
       <c r="J29" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="20" t="s">
         <v>80</v>
       </c>
       <c r="L29" s="13"/>
@@ -2805,20 +3418,20 @@
       <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="24" t="s">
         <v>114</v>
       </c>
       <c r="S29" s="13">
         <v>4.5</v>
       </c>
-      <c r="T29" s="19" t="s">
+      <c r="T29" s="20" t="s">
         <v>115</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="19" t="s">
+      <c r="V29" s="20" t="s">
         <v>83</v>
       </c>
       <c r="W29" s="13"/>
@@ -2835,19 +3448,19 @@
       <c r="AB29" s="13">
         <v>3</v>
       </c>
-      <c r="AC29" s="19" t="s">
+      <c r="AC29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="19" t="s">
+      <c r="AD29" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AE29" s="19" t="s">
+      <c r="AE29" s="20" t="s">
         <v>83</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -2867,13 +3480,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="29" t="s">
         <v>118</v>
       </c>
       <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="19" t="s">
         <v>80</v>
       </c>
       <c r="L30" s="12"/>
@@ -2883,20 +3496,20 @@
       <c r="P30" s="12">
         <v>2</v>
       </c>
-      <c r="Q30" s="22" t="s">
+      <c r="Q30" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="22" t="s">
+      <c r="R30" s="25" t="s">
         <v>114</v>
       </c>
       <c r="S30" s="12">
         <v>4.5</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="19" t="s">
         <v>115</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="18" t="s">
+      <c r="V30" s="19" t="s">
         <v>83</v>
       </c>
       <c r="W30" s="12"/>
@@ -2913,19 +3526,19 @@
       <c r="AB30" s="12">
         <v>3</v>
       </c>
-      <c r="AC30" s="18" t="s">
+      <c r="AC30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="18" t="s">
+      <c r="AD30" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AE30" s="18" t="s">
+      <c r="AE30" s="19" t="s">
         <v>83</v>
       </c>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="1">
         <v>60</v>
       </c>
@@ -3002,7 +3615,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="1">
         <v>61</v>
       </c>
@@ -3067,7 +3680,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
     </row>
-    <row r="33" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="2" customFormat="1" spans="1:33">
       <c r="A33" s="2">
         <v>62</v>
       </c>
@@ -3092,47 +3705,47 @@
       <c r="H33" s="12">
         <v>0</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="23" t="s">
         <v>127</v>
       </c>
       <c r="J33" s="12">
         <v>2.5</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="2" customFormat="1" spans="1:33">
       <c r="A34" s="2">
         <v>63</v>
       </c>
@@ -3157,47 +3770,47 @@
       <c r="H34" s="12">
         <v>0</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="23" t="s">
         <v>129</v>
       </c>
       <c r="J34" s="12">
         <v>3.5</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="19" t="s">
         <v>69</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" spans="1:33">
       <c r="A35" s="1">
         <v>100</v>
       </c>
@@ -3263,9 +3876,9 @@
       <c r="AG35" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -722,10 +722,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -737,89 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +768,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,10 +850,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,7 +891,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,7 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,37 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,25 +978,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,13 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,25 +1050,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,37 +1086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,26 +1135,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,8 +1159,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1192,8 +1171,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,15 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1236,16 +1206,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,133 +1248,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1739,7 +1733,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1975,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -722,10 +722,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -737,25 +737,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,21 +766,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,28 +804,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -827,7 +819,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,17 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,6 +848,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -874,7 +874,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,7 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +972,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,97 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,13 +1038,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,19 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,11 +1133,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,6 +1159,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,6 +1192,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1191,55 +1230,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,133 +1248,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1733,7 +1733,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>2012</v>
       </c>
       <c r="J23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>67</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>67</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>67</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>67</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>112</v>
       </c>
       <c r="J29" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>80</v>
@@ -3419,7 +3419,7 @@
         <v>114</v>
       </c>
       <c r="S29" s="13">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T29" s="20" t="s">
         <v>115</v>
@@ -3440,7 +3440,7 @@
         <v>2018</v>
       </c>
       <c r="AB29" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="20" t="s">
         <v>84</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -724,8 +724,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -750,40 +750,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,16 +789,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,26 +843,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,17 +866,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,6 +930,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,7 +1026,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,103 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,19 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,25 +1092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,17 +1133,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,8 +1175,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,15 +1211,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1206,175 +1230,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1733,7 +1733,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -607,13 +607,13 @@
     <t>普通石人6</t>
   </si>
   <si>
-    <t>普通石人7</t>
+    <t>叠攻击石人7</t>
   </si>
   <si>
     <t>普通石人8</t>
   </si>
   <si>
-    <t>普通石人9</t>
+    <t>冰冷石人9</t>
   </si>
   <si>
     <t>普通石人10</t>
@@ -723,8 +723,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -736,6 +736,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -743,8 +744,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,9 +767,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,31 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,52 +865,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -866,15 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,6 +912,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -930,19 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,19 +948,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +984,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,55 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1050,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,43 +1092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,6 +1133,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1144,15 +1155,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,8 +1177,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,26 +1198,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1230,16 +1212,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,169 +1248,176 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1730,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1741,19 +1748,19 @@
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
-    <col min="12" max="15" width="13" style="4" customWidth="1"/>
-    <col min="16" max="18" width="15.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="15" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="5" customWidth="1"/>
-    <col min="22" max="23" width="14.125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="5" customWidth="1"/>
-    <col min="25" max="27" width="15.875" style="6" customWidth="1"/>
-    <col min="28" max="29" width="15.25" style="6" customWidth="1"/>
-    <col min="30" max="33" width="14.125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="5" customWidth="1"/>
+    <col min="12" max="15" width="13" style="5" customWidth="1"/>
+    <col min="16" max="18" width="15.875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="15" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="6" customWidth="1"/>
+    <col min="22" max="23" width="14.125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="6" customWidth="1"/>
+    <col min="25" max="27" width="15.875" style="7" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="7" customWidth="1"/>
+    <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1766,94 +1773,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="32" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1864,94 +1871,94 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="32" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1977,46 +1984,46 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
@@ -2031,34 +2038,34 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="10">
         <v>6</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
@@ -2079,34 +2086,34 @@
       <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="10">
         <v>6</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
@@ -2127,34 +2134,34 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="10">
         <v>7</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
@@ -2175,40 +2182,40 @@
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="10">
         <v>8</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2223,66 +2230,66 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>3</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="11">
         <v>2000</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="20">
         <v>2003</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="11">
         <v>4.5</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11">
         <v>2</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="11">
         <v>2005</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="11">
         <v>2000</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="11">
         <v>3</v>
       </c>
-      <c r="AC8" s="17" t="s">
+      <c r="AC8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="17" t="s">
+      <c r="AD8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AE8" s="17" t="s">
+      <c r="AE8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
@@ -2306,46 +2313,46 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
@@ -2366,34 +2373,34 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>11</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
@@ -2414,34 +2421,34 @@
       <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
         <v>12</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
@@ -2459,34 +2466,34 @@
       <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10">
         <v>13</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
@@ -2504,34 +2511,34 @@
       <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10">
         <v>14</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
@@ -2549,34 +2556,34 @@
       <c r="E14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="9">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10">
         <v>15</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
@@ -2594,34 +2601,34 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10">
         <v>5</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
@@ -2639,34 +2646,34 @@
       <c r="E16" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10">
         <v>6</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
@@ -2684,34 +2691,34 @@
       <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
@@ -2729,34 +2736,34 @@
       <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10">
         <v>8</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
@@ -2774,34 +2781,34 @@
       <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10">
         <v>9</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
@@ -2825,46 +2832,46 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
         <v>3</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:33">
       <c r="A21" s="2">
@@ -2888,46 +2895,46 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12">
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:33">
       <c r="A22" s="2">
@@ -2951,46 +2958,46 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
         <v>3</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
@@ -3014,48 +3021,48 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
         <v>2012</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="14">
         <v>2</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
@@ -3079,46 +3086,46 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13">
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
         <v>2</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
@@ -3142,46 +3149,48 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13">
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2016</v>
+      </c>
+      <c r="J25" s="14">
         <v>2</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
@@ -3205,111 +3214,111 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13">
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
         <v>2</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:33">
-      <c r="A27" s="2">
+    <row r="27" s="3" customFormat="1" spans="1:33">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>82</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>2016</v>
-      </c>
-      <c r="J27" s="12">
-        <v>3</v>
-      </c>
-      <c r="K27" s="19" t="s">
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>2024</v>
+      </c>
+      <c r="J27" s="14">
+        <v>2</v>
+      </c>
+      <c r="K27" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
@@ -3333,54 +3342,54 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
         <v>2016</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3395,70 +3404,70 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="28" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="14">
         <v>2</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14">
         <v>2</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="14">
         <v>3.5</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="20" t="s">
+      <c r="U29" s="14"/>
+      <c r="V29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13">
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14">
         <v>2</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="14">
         <v>2019</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="14">
         <v>2018</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="14">
         <v>2</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AC29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3473,401 +3482,800 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="13"/>
+      <c r="I30" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13">
         <v>2</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="13">
         <v>4.5</v>
       </c>
-      <c r="T30" s="19" t="s">
+      <c r="T30" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="19" t="s">
+      <c r="U30" s="13"/>
+      <c r="V30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12">
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13">
         <v>2</v>
       </c>
-      <c r="Z30" s="12">
+      <c r="Z30" s="13">
         <v>2019</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="13">
         <v>2018</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="13">
         <v>3</v>
       </c>
-      <c r="AC30" s="19" t="s">
+      <c r="AC30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="19" t="s">
+      <c r="AD30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AE30" s="19" t="s">
+      <c r="AE30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
-      <c r="A31" s="1">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    <row r="31" s="4" customFormat="1" spans="1:33">
+      <c r="A31" s="4">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>2010</v>
-      </c>
-      <c r="J31" s="10">
-        <v>7</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="17" t="s">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>70</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>2012</v>
+      </c>
+      <c r="J31" s="17">
+        <v>2</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10">
-        <v>1</v>
-      </c>
-      <c r="T31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="V31" s="17" t="s">
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:33">
+      <c r="A32" s="4">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17">
+        <v>2</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="W31" s="17" t="s">
+      <c r="N32" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="O32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
-      <c r="A32" s="1">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1017</v>
-      </c>
-      <c r="J32" s="10">
-        <v>2</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:33">
-      <c r="A33" s="2">
+    <row r="33" s="4" customFormat="1" spans="1:33">
+      <c r="A33" s="4">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>86</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>2016</v>
+      </c>
+      <c r="J33" s="17">
+        <v>2</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:33">
+      <c r="A34" s="4">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>94</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
+        <v>2</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:33">
+      <c r="A35" s="4">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>102</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>2024</v>
+      </c>
+      <c r="J35" s="17">
+        <v>2</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:33">
+      <c r="A36" s="4">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>180</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="17">
+        <v>2</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="S36" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="T36" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U36" s="17"/>
+      <c r="V36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>2019</v>
+      </c>
+      <c r="AA36" s="17">
+        <v>2018</v>
+      </c>
+      <c r="AB36" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD36" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:33">
+      <c r="A37" s="1">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2010</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11">
+        <v>1</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:33">
+      <c r="A38" s="1">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1017</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:33">
+      <c r="A39" s="2">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
         <v>80</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="23" t="s">
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J39" s="13">
         <v>2.5</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K39" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M39" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N39" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O39" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:33">
-      <c r="A34" s="2">
+    <row r="40" s="2" customFormat="1" spans="1:33">
+      <c r="A40" s="2">
         <v>63</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
         <v>100</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23" t="s">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J40" s="13">
         <v>3.5</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K40" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M40" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N40" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="O40" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
-      <c r="A35" s="1">
+    <row r="41" s="1" customFormat="1" spans="1:33">
+      <c r="A41" s="1">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>25</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
         <v>2013</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J41" s="11">
         <v>3</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K41" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M41" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N41" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O41" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -722,8 +722,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -738,113 +738,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,6 +761,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -872,9 +813,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,7 +936,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +996,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +1050,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,121 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,6 +1129,63 @@
       </top>
       <bottom style="dotted">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,30 +1217,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1197,49 +1230,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,133 +1248,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1739,8 +1739,8 @@
   <sheetPr/>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2254,7 +2254,7 @@
         <v>2003</v>
       </c>
       <c r="S8" s="11">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T8" s="20" t="s">
         <v>81</v>
@@ -2277,7 +2277,7 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AC8" s="20" t="s">
         <v>84</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="14">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="34" t="s">
@@ -3428,7 +3428,7 @@
         <v>114</v>
       </c>
       <c r="S29" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T29" s="23" t="s">
         <v>115</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="17">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="s">
@@ -3905,7 +3905,7 @@
         <v>114</v>
       </c>
       <c r="S36" s="17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T36" s="26" t="s">
         <v>115</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C132D8-D4F9-4717-9360-E60A7D452563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8D8E9E03-0BBC-4533-AFB2-9829BD5D1B04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0=根据行为权重，随机一种行为
+1=循环行为权重中填写的行为</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -275,9 +308,6 @@
     <t>1阶段Buff列表</t>
   </si>
   <si>
-    <t>决策时间-1阶段</t>
-  </si>
-  <si>
     <t>行为权重-1阶段</t>
   </si>
   <si>
@@ -302,9 +332,6 @@
     <t>2阶段移除Buff列表</t>
   </si>
   <si>
-    <t>决策时间-2阶段</t>
-  </si>
-  <si>
     <t>行为权重-2阶段</t>
   </si>
   <si>
@@ -329,9 +356,6 @@
     <t>3阶段移除Buff列表</t>
   </si>
   <si>
-    <t>决策时间-3阶段</t>
-  </si>
-  <si>
     <t>行为权重-3阶段</t>
   </si>
   <si>
@@ -371,9 +395,6 @@
     <t>addBuffList1</t>
   </si>
   <si>
-    <t>speed1</t>
-  </si>
-  <si>
     <t>AIType1</t>
   </si>
   <si>
@@ -398,9 +419,6 @@
     <t>removeBuffList2</t>
   </si>
   <si>
-    <t>speed2</t>
-  </si>
-  <si>
     <t>AIType2</t>
   </si>
   <si>
@@ -423,9 +441,6 @@
   </si>
   <si>
     <t>removeBuffList3</t>
-  </si>
-  <si>
-    <t>speed3</t>
   </si>
   <si>
     <t>AIType3</t>
@@ -547,9 +562,6 @@
     <t>xieerke_1</t>
   </si>
   <si>
-    <t>1,1,1,1,0</t>
-  </si>
-  <si>
     <t>快速打击谢尔克</t>
   </si>
   <si>
@@ -716,167 +728,159 @@
   <si>
     <t>憨憨石人</t>
   </si>
+  <si>
+    <t>行为模式-1阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AIMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为模式-2阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为模式-3阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,8 +894,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,198 +951,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1132,253 +991,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1402,78 +1019,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1731,19 +1303,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1763,7 +1335,7 @@
     <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1791,186 +1363,186 @@
       <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="AA1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AB1" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AD1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AE1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AF1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AG1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="2:33">
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="P2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="Q2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="R2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="S2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="Y2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="Z2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="AA2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="AB2" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AD2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="AE2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AF2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AG2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1989,22 +1561,22 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -2025,15 +1597,15 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2067,15 +1639,15 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2115,15 +1687,15 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2163,15 +1735,15 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2211,15 +1783,15 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2231,14 +1803,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="33" t="s">
-        <v>79</v>
+      <c r="I8" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="J8" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -2254,16 +1826,16 @@
         <v>2003</v>
       </c>
       <c r="S8" s="11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2277,29 +1849,29 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2313,27 +1885,25 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -2354,15 +1924,15 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2402,15 +1972,15 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2450,15 +2020,15 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2495,15 +2065,15 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2540,15 +2110,15 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2585,15 +2155,15 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2630,15 +2200,15 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2675,15 +2245,15 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2720,15 +2290,15 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2765,15 +2335,15 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2810,15 +2380,15 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2840,19 +2410,19 @@
         <v>3</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -2873,15 +2443,15 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2902,49 +2472,49 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>69</v>
+      <c r="K21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2965,49 +2535,49 @@
       <c r="J22" s="13">
         <v>3</v>
       </c>
-      <c r="K22" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>69</v>
+      <c r="K22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -3030,49 +2600,49 @@
       <c r="J23" s="14">
         <v>2</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>69</v>
+      <c r="K23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -3093,49 +2663,49 @@
       <c r="J24" s="14">
         <v>2</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>69</v>
+      <c r="K24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -3158,49 +2728,49 @@
       <c r="J25" s="14">
         <v>2</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>69</v>
+      <c r="K25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -3221,49 +2791,49 @@
       <c r="J26" s="14">
         <v>2</v>
       </c>
-      <c r="K26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>69</v>
+      <c r="K26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -3286,49 +2856,49 @@
       <c r="J27" s="14">
         <v>2</v>
       </c>
-      <c r="K27" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>69</v>
+      <c r="K27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3351,49 +2921,49 @@
       <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>69</v>
+      <c r="K28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -3405,14 +2975,14 @@
         <v>2</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="I29" s="34" t="s">
-        <v>112</v>
+      <c r="I29" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="J29" s="14">
         <v>2</v>
       </c>
-      <c r="K29" s="23" t="s">
-        <v>80</v>
+      <c r="K29" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3421,21 +2991,21 @@
       <c r="P29" s="14">
         <v>2</v>
       </c>
-      <c r="Q29" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>114</v>
+      <c r="Q29" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="S29" s="14">
         <v>3</v>
       </c>
-      <c r="T29" s="23" t="s">
-        <v>115</v>
+      <c r="T29" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="U29" s="14"/>
-      <c r="V29" s="23" t="s">
-        <v>83</v>
+      <c r="V29" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
@@ -3451,27 +3021,27 @@
       <c r="AB29" s="14">
         <v>2</v>
       </c>
-      <c r="AC29" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD29" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>83</v>
+      <c r="AC29" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE29" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3483,14 +3053,14 @@
         <v>2</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="35" t="s">
-        <v>118</v>
+      <c r="I30" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>80</v>
+      <c r="K30" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -3499,21 +3069,21 @@
       <c r="P30" s="13">
         <v>2</v>
       </c>
-      <c r="Q30" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="R30" s="30" t="s">
-        <v>114</v>
+      <c r="Q30" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="S30" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>115</v>
+        <v>4</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="U30" s="13"/>
-      <c r="V30" s="22" t="s">
-        <v>83</v>
+      <c r="V30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -3529,27 +3099,27 @@
       <c r="AB30" s="13">
         <v>3</v>
       </c>
-      <c r="AC30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE30" s="22" t="s">
-        <v>83</v>
+      <c r="AC30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD30" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3572,49 +3142,49 @@
       <c r="J31" s="17">
         <v>2</v>
       </c>
-      <c r="K31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>69</v>
+      <c r="K31" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -3635,49 +3205,49 @@
       <c r="J32" s="17">
         <v>2</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O32" s="26" t="s">
-        <v>69</v>
+      <c r="K32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3700,49 +3270,49 @@
       <c r="J33" s="17">
         <v>2</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M33" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O33" s="26" t="s">
-        <v>69</v>
+      <c r="K33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3763,49 +3333,49 @@
       <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K34" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="26" t="s">
-        <v>69</v>
+      <c r="K34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -3828,49 +3398,49 @@
       <c r="J35" s="17">
         <v>2</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>69</v>
+      <c r="K35" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3882,14 +3452,14 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="36" t="s">
-        <v>112</v>
+      <c r="I36" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
       </c>
-      <c r="K36" s="26" t="s">
-        <v>80</v>
+      <c r="K36" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -3898,21 +3468,21 @@
       <c r="P36" s="17">
         <v>2</v>
       </c>
-      <c r="Q36" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="R36" s="31" t="s">
-        <v>114</v>
+      <c r="Q36" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
-      <c r="T36" s="26" t="s">
-        <v>115</v>
+      <c r="T36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="U36" s="17"/>
-      <c r="V36" s="26" t="s">
-        <v>83</v>
+      <c r="V36" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -3928,27 +3498,27 @@
       <c r="AB36" s="17">
         <v>2</v>
       </c>
-      <c r="AC36" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD36" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE36" s="26" t="s">
-        <v>83</v>
+      <c r="AC36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD36" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE36" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3972,19 +3542,19 @@
         <v>7</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -3993,19 +3563,19 @@
         <v>1</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -4017,15 +3587,15 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -4049,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -4082,15 +3652,15 @@
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4107,55 +3677,55 @@
       <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="28" t="s">
-        <v>127</v>
+      <c r="I39" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="J39" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
       <c r="AE39" s="13"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="13"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -4172,55 +3742,55 @@
       <c r="H40" s="13">
         <v>0</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>129</v>
+      <c r="I40" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="J40" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
       <c r="AE40" s="13"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="13"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -4244,19 +3814,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -4278,9 +3848,9 @@
       <c r="AG41" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C132D8-D4F9-4717-9360-E60A7D452563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,15 +47,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8D8E9E03-0BBC-4533-AFB2-9829BD5D1B04}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -69,9 +61,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -308,6 +298,9 @@
     <t>1阶段Buff列表</t>
   </si>
   <si>
+    <t>行为模式-1阶段</t>
+  </si>
+  <si>
     <t>行为权重-1阶段</t>
   </si>
   <si>
@@ -332,6 +325,9 @@
     <t>2阶段移除Buff列表</t>
   </si>
   <si>
+    <t>行为模式-2阶段</t>
+  </si>
+  <si>
     <t>行为权重-2阶段</t>
   </si>
   <si>
@@ -356,6 +352,9 @@
     <t>3阶段移除Buff列表</t>
   </si>
   <si>
+    <t>行为模式-3阶段</t>
+  </si>
+  <si>
     <t>行为权重-3阶段</t>
   </si>
   <si>
@@ -395,6 +394,28 @@
     <t>addBuffList1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AIMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>AIType1</t>
   </si>
   <si>
@@ -419,6 +440,38 @@
     <t>removeBuffList2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>AIType2</t>
   </si>
   <si>
@@ -443,6 +496,38 @@
     <t>removeBuffList3</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
     <t>AIType3</t>
   </si>
   <si>
@@ -464,16 +549,13 @@
     <t>monster_test_01</t>
   </si>
   <si>
-    <t>2,1,0,0,5</t>
-  </si>
-  <si>
-    <t>5,10|10,7</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>5,10|10,5</t>
+    <t>2,2,1,2</t>
+  </si>
+  <si>
+    <t>17,10</t>
+  </si>
+  <si>
+    <t>23,10</t>
   </si>
   <si>
     <t>强壮石人</t>
@@ -562,6 +644,77 @@
     <t>xieerke_1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>5,10|10,7</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>5,10|10,5</t>
+  </si>
+  <si>
     <t>快速打击谢尔克</t>
   </si>
   <si>
@@ -605,6 +758,9 @@
   </si>
   <si>
     <t>普通石人2</t>
+  </si>
+  <si>
+    <t>2,1,0,0,5</t>
   </si>
   <si>
     <t>普通石人3</t>
@@ -728,159 +884,167 @@
   <si>
     <t>憨憨石人</t>
   </si>
-  <si>
-    <t>行为模式-1阶段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AIMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为模式-2阶段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为模式-3阶段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,37 +1058,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,24 +1086,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641044"/>
+        <fgColor theme="7" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641044"/>
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -991,11 +1300,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1019,33 +1570,78 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1303,19 +1899,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1335,7 +1931,7 @@
     <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,192 +1959,192 @@
       <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>124</v>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="Y1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" s="28" t="s">
+      <c r="Z1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AB1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AC1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AD1" s="32" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>125</v>
+        <v>40</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="Y2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>58</v>
       </c>
+      <c r="AB2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1561,22 +2157,22 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -1597,15 +2193,15 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1639,15 +2235,15 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1687,15 +2283,15 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1735,15 +2331,15 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1783,15 +2379,15 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1803,14 +2399,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="29" t="s">
-        <v>73</v>
+      <c r="I8" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="J8" s="11">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1829,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -1852,26 +2448,26 @@
         <v>2</v>
       </c>
       <c r="AC8" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1890,20 +2486,20 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>130</v>
+      <c r="K9" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1924,15 +2520,15 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1972,15 +2568,15 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2020,15 +2616,15 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2065,15 +2661,15 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2110,15 +2706,15 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2155,15 +2751,15 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2200,15 +2796,15 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2245,15 +2841,15 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2290,15 +2886,15 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2335,15 +2931,15 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2380,15 +2976,15 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2410,19 +3006,19 @@
         <v>3</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -2443,15 +3039,15 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="2" customFormat="1" spans="1:33">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2472,49 +3068,49 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>63</v>
+      <c r="K21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" spans="1:33">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2535,49 +3131,49 @@
       <c r="J22" s="13">
         <v>3</v>
       </c>
-      <c r="K22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>63</v>
+      <c r="K22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2600,49 +3196,49 @@
       <c r="J23" s="14">
         <v>2</v>
       </c>
-      <c r="K23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>63</v>
+      <c r="K23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2663,49 +3259,49 @@
       <c r="J24" s="14">
         <v>2</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>63</v>
+      <c r="K24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2728,49 +3324,49 @@
       <c r="J25" s="14">
         <v>2</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>63</v>
+      <c r="K25" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2791,49 +3387,49 @@
       <c r="J26" s="14">
         <v>2</v>
       </c>
-      <c r="K26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>63</v>
+      <c r="K26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="3" customFormat="1" spans="1:33">
       <c r="A27" s="3">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2856,49 +3452,49 @@
       <c r="J27" s="14">
         <v>2</v>
       </c>
-      <c r="K27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>63</v>
+      <c r="K27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -2921,49 +3517,49 @@
       <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="K28" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>63</v>
+      <c r="K28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
     </row>
-    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2975,14 +3571,14 @@
         <v>2</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="I29" s="30" t="s">
-        <v>105</v>
+      <c r="I29" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="J29" s="14">
         <v>2</v>
       </c>
-      <c r="K29" s="22" t="s">
-        <v>74</v>
+      <c r="K29" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -2991,21 +3587,21 @@
       <c r="P29" s="14">
         <v>2</v>
       </c>
-      <c r="Q29" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R29" s="25" t="s">
-        <v>107</v>
+      <c r="Q29" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="S29" s="14">
         <v>3</v>
       </c>
-      <c r="T29" s="22" t="s">
-        <v>108</v>
+      <c r="T29" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="U29" s="14"/>
-      <c r="V29" s="22" t="s">
-        <v>77</v>
+      <c r="V29" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
@@ -3021,27 +3617,27 @@
       <c r="AB29" s="14">
         <v>2</v>
       </c>
-      <c r="AC29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE29" s="22" t="s">
-        <v>77</v>
+      <c r="AC29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE29" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3053,14 +3649,14 @@
         <v>2</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="31" t="s">
-        <v>111</v>
+      <c r="I30" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="21" t="s">
-        <v>74</v>
+      <c r="K30" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -3069,21 +3665,21 @@
       <c r="P30" s="13">
         <v>2</v>
       </c>
-      <c r="Q30" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="R30" s="26" t="s">
-        <v>107</v>
+      <c r="Q30" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="S30" s="13">
         <v>4</v>
       </c>
-      <c r="T30" s="21" t="s">
-        <v>108</v>
+      <c r="T30" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="U30" s="13"/>
-      <c r="V30" s="21" t="s">
-        <v>77</v>
+      <c r="V30" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -3099,27 +3695,27 @@
       <c r="AB30" s="13">
         <v>3</v>
       </c>
-      <c r="AC30" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD30" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE30" s="21" t="s">
-        <v>77</v>
+      <c r="AC30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE30" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
     </row>
-    <row r="31" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="4" customFormat="1" spans="1:33">
       <c r="A31" s="4">
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3142,49 +3738,49 @@
       <c r="J31" s="17">
         <v>2</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>63</v>
+      <c r="K31" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="4" customFormat="1" spans="1:33">
       <c r="A32" s="4">
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -3205,49 +3801,49 @@
       <c r="J32" s="17">
         <v>2</v>
       </c>
-      <c r="K32" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>63</v>
+      <c r="K32" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="4" customFormat="1" spans="1:33">
       <c r="A33" s="4">
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3270,49 +3866,49 @@
       <c r="J33" s="17">
         <v>2</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>63</v>
+      <c r="K33" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
     </row>
-    <row r="34" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="4" customFormat="1" spans="1:33">
       <c r="A34" s="4">
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3333,49 +3929,49 @@
       <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K34" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>63</v>
+      <c r="K34" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
     </row>
-    <row r="35" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="4" customFormat="1" spans="1:33">
       <c r="A35" s="4">
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -3398,49 +3994,49 @@
       <c r="J35" s="17">
         <v>2</v>
       </c>
-      <c r="K35" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>63</v>
+      <c r="K35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
     </row>
-    <row r="36" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" s="4" customFormat="1" spans="1:33">
       <c r="A36" s="4">
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3452,14 +4048,14 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="32" t="s">
-        <v>105</v>
+      <c r="I36" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>74</v>
+      <c r="K36" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -3468,21 +4064,21 @@
       <c r="P36" s="17">
         <v>2</v>
       </c>
-      <c r="Q36" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="R36" s="27" t="s">
-        <v>107</v>
+      <c r="Q36" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
-      <c r="T36" s="23" t="s">
-        <v>108</v>
+      <c r="T36" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="U36" s="17"/>
-      <c r="V36" s="23" t="s">
-        <v>77</v>
+      <c r="V36" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -3498,27 +4094,27 @@
       <c r="AB36" s="17">
         <v>2</v>
       </c>
-      <c r="AC36" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD36" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE36" s="23" t="s">
-        <v>77</v>
+      <c r="AC36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD36" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE36" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" s="1" customFormat="1" spans="1:33">
       <c r="A37" s="1">
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3542,19 +4138,19 @@
         <v>7</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -3563,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -3587,15 +4183,15 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" spans="1:33">
       <c r="A38" s="1">
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -3619,19 +4215,19 @@
         <v>2</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -3652,15 +4248,15 @@
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
     </row>
-    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" s="2" customFormat="1" spans="1:33">
       <c r="A39" s="2">
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -3677,55 +4273,55 @@
       <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="24" t="s">
-        <v>120</v>
+      <c r="I39" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="J39" s="13">
         <v>2</v>
       </c>
-      <c r="K39" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="21" t="s">
-        <v>63</v>
+      <c r="K39" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="13"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="13"/>
     </row>
-    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" s="2" customFormat="1" spans="1:33">
       <c r="A40" s="2">
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -3742,55 +4338,55 @@
       <c r="H40" s="13">
         <v>0</v>
       </c>
-      <c r="I40" s="24" t="s">
-        <v>122</v>
+      <c r="I40" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="J40" s="13">
         <v>3</v>
       </c>
-      <c r="K40" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N40" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="21" t="s">
-        <v>63</v>
+      <c r="K40" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="13"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="13"/>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="1">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -3814,19 +4410,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -3848,9 +4444,9 @@
       <c r="AG41" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>23,10</t>
+  </si>
+  <si>
+    <t>18,10</t>
+  </si>
+  <si>
+    <t>19,10</t>
   </si>
   <si>
     <t>强壮石人</t>
@@ -890,10 +896,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -912,6 +918,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -920,7 +941,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,28 +1030,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -981,68 +1047,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,13 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1140,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,13 +1230,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,79 +1266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,37 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,6 +1307,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1316,20 +1342,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,11 +1374,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,40 +1404,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,13 +1425,13 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,115 +1440,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1907,8 +1913,8 @@
   <sheetPr/>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2174,24 +2180,52 @@
       <c r="O3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="11">
+        <v>2</v>
+      </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="S3" s="11">
+        <v>1</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2</v>
+      </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
+      <c r="AB3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
@@ -2240,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2288,10 +2322,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2336,10 +2370,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2384,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2400,13 +2434,13 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" s="11">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -2425,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2448,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="AC8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AD8" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="AE8" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2464,10 +2498,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2487,19 +2521,19 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -2525,10 +2559,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2573,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2621,10 +2655,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2666,10 +2700,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2711,10 +2745,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2756,10 +2790,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2801,10 +2835,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2846,10 +2880,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2891,10 +2925,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2936,10 +2970,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2981,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
@@ -3006,19 +3040,19 @@
         <v>3</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -3044,7 +3078,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>66</v>
@@ -3069,19 +3103,19 @@
         <v>3</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -3107,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>66</v>
@@ -3132,19 +3166,19 @@
         <v>3</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -3170,7 +3204,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
@@ -3197,19 +3231,19 @@
         <v>2</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -3235,7 +3269,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
@@ -3260,19 +3294,19 @@
         <v>2</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
@@ -3298,7 +3332,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
@@ -3325,19 +3359,19 @@
         <v>2</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3363,7 +3397,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -3388,19 +3422,19 @@
         <v>2</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -3426,7 +3460,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3453,19 +3487,19 @@
         <v>2</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -3491,7 +3525,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -3518,19 +3552,19 @@
         <v>3</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -3556,10 +3590,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -3572,13 +3606,13 @@
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J29" s="14">
         <v>2</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3588,20 +3622,20 @@
         <v>2</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R29" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S29" s="14">
         <v>3</v>
       </c>
       <c r="T29" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
@@ -3618,13 +3652,13 @@
         <v>2</v>
       </c>
       <c r="AC29" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD29" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE29" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
@@ -3634,10 +3668,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3650,13 +3684,13 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J30" s="13">
         <v>3</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -3666,20 +3700,20 @@
         <v>2</v>
       </c>
       <c r="Q30" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R30" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S30" s="13">
         <v>4</v>
       </c>
       <c r="T30" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -3696,13 +3730,13 @@
         <v>3</v>
       </c>
       <c r="AC30" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD30" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE30" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
@@ -3712,7 +3746,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>66</v>
@@ -3739,19 +3773,19 @@
         <v>2</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3777,7 +3811,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>66</v>
@@ -3802,19 +3836,19 @@
         <v>2</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -3840,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>66</v>
@@ -3867,19 +3901,19 @@
         <v>2</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -3905,7 +3939,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -3930,19 +3964,19 @@
         <v>2</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N34" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -3968,7 +4002,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
@@ -3995,19 +4029,19 @@
         <v>2</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -4033,10 +4067,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -4049,13 +4083,13 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -4065,20 +4099,20 @@
         <v>2</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R36" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
       <c r="T36" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -4095,13 +4129,13 @@
         <v>2</v>
       </c>
       <c r="AC36" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD36" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE36" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
@@ -4111,7 +4145,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>66</v>
@@ -4138,19 +4172,19 @@
         <v>7</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -4159,19 +4193,19 @@
         <v>1</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -4188,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>66</v>
@@ -4215,19 +4249,19 @@
         <v>2</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -4253,10 +4287,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4274,25 +4308,25 @@
         <v>0</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J39" s="13">
         <v>2</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -4318,10 +4352,10 @@
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -4339,25 +4373,25 @@
         <v>0</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J40" s="13">
         <v>3</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -4383,10 +4417,10 @@
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -4410,19 +4444,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -763,19 +763,10 @@
     <t>暴击刺猬怪</t>
   </si>
   <si>
-    <t>普通石人2</t>
+    <t>弃牌石人5</t>
   </si>
   <si>
     <t>2,1,0,0,5</t>
-  </si>
-  <si>
-    <t>普通石人3</t>
-  </si>
-  <si>
-    <t>普通石人4</t>
-  </si>
-  <si>
-    <t>弃牌石人5</t>
   </si>
   <si>
     <t>普通石人6</t>
@@ -887,18 +878,15 @@
   <si>
     <t>2012,2016,2021</t>
   </si>
-  <si>
-    <t>憨憨石人</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -910,22 +898,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -933,15 +905,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,6 +958,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -993,22 +989,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,7 +1011,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1046,9 +1034,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,7 +1098,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,13 +1176,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,19 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,73 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,25 +1266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,11 +1295,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,32 +1360,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,31 +1392,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1422,133 +1410,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1568,8 +1556,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1577,8 +1565,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1913,8 +1901,8 @@
   <sheetPr/>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2427,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3015,7 +3003,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
@@ -3024,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3037,174 +3025,258 @@
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="P20" s="11">
+        <v>2</v>
+      </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="S20" s="11">
+        <v>1</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>2</v>
+      </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
+      <c r="AB20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG20" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:33">
-      <c r="A21" s="2">
+    <row r="21" s="1" customFormat="1" spans="1:33">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11">
+        <v>1</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG21" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:33">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:33">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13">
-        <v>3</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11">
+        <v>1</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
@@ -3221,55 +3293,55 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>2012</v>
       </c>
-      <c r="J23" s="14">
-        <v>2</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
@@ -3286,53 +3358,53 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
-        <v>2</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
@@ -3349,55 +3421,55 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
         <v>2016</v>
       </c>
-      <c r="J25" s="14">
-        <v>2</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -3414,53 +3486,53 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
-        <v>2</v>
-      </c>
-      <c r="K26" s="23" t="s">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:33">
       <c r="A27" s="3">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3477,55 +3549,55 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
         <v>2024</v>
       </c>
-      <c r="J27" s="14">
-        <v>2</v>
-      </c>
-      <c r="K27" s="23" t="s">
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -3542,55 +3614,55 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
         <v>2016</v>
       </c>
-      <c r="J28" s="13">
-        <v>3</v>
-      </c>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>79</v>
@@ -3604,71 +3676,71 @@
       <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29" s="13">
+        <v>3</v>
+      </c>
+      <c r="T29" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="14">
+      <c r="U29" s="13"/>
+      <c r="V29" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13">
         <v>2</v>
       </c>
-      <c r="K29" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14">
+      <c r="Z29" s="13">
+        <v>2019</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>2018</v>
+      </c>
+      <c r="AB29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="AC29" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="R29" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="S29" s="14">
-        <v>3</v>
-      </c>
-      <c r="T29" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="U29" s="14"/>
-      <c r="V29" s="23" t="s">
+      <c r="AE29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>2019</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>2018</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD29" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>79</v>
@@ -3682,71 +3754,71 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="13">
+        <v>120</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="14">
+        <v>4</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" s="14"/>
+      <c r="V30" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>2019</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>2018</v>
+      </c>
+      <c r="AB30" s="14">
         <v>3</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="30" t="s">
+      <c r="AC30" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD30" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="R30" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="S30" s="13">
-        <v>4</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="22" t="s">
+      <c r="AE30" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>2019</v>
-      </c>
-      <c r="AA30" s="13">
-        <v>2018</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD30" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:33">
       <c r="A31" s="4">
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>66</v>
@@ -3770,7 +3842,7 @@
         <v>2012</v>
       </c>
       <c r="J31" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>107</v>
@@ -3811,7 +3883,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>66</v>
@@ -3833,7 +3905,7 @@
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>107</v>
@@ -3874,7 +3946,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>66</v>
@@ -3898,7 +3970,7 @@
         <v>2016</v>
       </c>
       <c r="J33" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>107</v>
@@ -3939,7 +4011,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -3961,7 +4033,7 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="26" t="s">
         <v>107</v>
@@ -4002,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
@@ -4026,7 +4098,7 @@
         <v>2024</v>
       </c>
       <c r="J35" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>107</v>
@@ -4067,7 +4139,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>79</v>
@@ -4083,10 +4155,10 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J36" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="26" t="s">
         <v>81</v>
@@ -4099,16 +4171,16 @@
         <v>2</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R36" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
       <c r="T36" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="26" t="s">
@@ -4132,7 +4204,7 @@
         <v>85</v>
       </c>
       <c r="AD36" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE36" s="26" t="s">
         <v>84</v>
@@ -4140,154 +4212,154 @@
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
-      <c r="A37" s="1">
+    <row r="37" s="2" customFormat="1" spans="1:33">
+      <c r="A37" s="2">
         <v>60</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>100</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>2010</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14">
+        <v>1</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="U37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="V37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="W37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:33">
+      <c r="A38" s="2">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>100</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>2010</v>
-      </c>
-      <c r="J37" s="11">
-        <v>7</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" s="20" t="s">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1017</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="L38" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11">
-        <v>1</v>
-      </c>
-      <c r="T37" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="U37" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="V37" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="W37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="X37" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
-      <c r="A38" s="1">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1017</v>
-      </c>
-      <c r="J38" s="11">
-        <v>2</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:33">
       <c r="A39" s="2">
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>75</v>
@@ -4304,55 +4376,55 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="14">
         <v>0</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" s="13">
-        <v>2</v>
-      </c>
-      <c r="K39" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:33">
       <c r="A40" s="2">
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>75</v>
@@ -4369,67 +4441,67 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" s="13">
-        <v>3</v>
-      </c>
-      <c r="K40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="1">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -4441,41 +4513,69 @@
         <v>2013</v>
       </c>
       <c r="J41" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P41" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="P41" s="11">
+        <v>2</v>
+      </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
+      <c r="S41" s="11">
+        <v>1</v>
+      </c>
+      <c r="T41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>2</v>
+      </c>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="11"/>
+      <c r="AB41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG41" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792BFDB-E62A-46C9-9E69-832B7F96AF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -878,167 +884,72 @@
   <si>
     <t>2012,2016,2021</t>
   </si>
+  <si>
+    <t>新手怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手怪2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1510,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>511</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,8 +963,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,198 +1005,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
+        <fgColor theme="7" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
+        <fgColor theme="9" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1294,253 +1045,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1564,78 +1073,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1893,19 +1355,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1925,7 +1387,7 @@
     <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,35 +1460,35 @@
       <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2096,35 +1558,35 @@
       <c r="X2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2215,7 +1677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2257,7 +1719,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2305,7 +1767,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2353,7 +1815,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2401,7 +1863,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2421,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="29" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="11">
@@ -2481,7 +1943,7 @@
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2542,7 +2004,7 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2590,7 +2052,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2638,7 +2100,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2683,7 +2145,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2728,7 +2190,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2773,7 +2235,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2818,7 +2280,7 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2863,7 +2325,7 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2908,7 +2370,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2953,7 +2415,7 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2998,7 +2460,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3089,7 +2551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3180,7 +2642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3271,7 +2733,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3302,41 +2764,41 @@
       <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3365,41 +2827,41 @@
       <c r="J24" s="13">
         <v>0</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3430,41 +2892,41 @@
       <c r="J25" s="13">
         <v>0</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3493,41 +2955,41 @@
       <c r="J26" s="13">
         <v>0</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -3558,41 +3020,41 @@
       <c r="J27" s="13">
         <v>0</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3623,41 +3085,41 @@
       <c r="J28" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3677,13 +3139,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="30" t="s">
         <v>114</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="21" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="13"/>
@@ -3693,20 +3155,20 @@
       <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="25" t="s">
         <v>116</v>
       </c>
       <c r="S29" s="13">
         <v>3</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="T29" s="21" t="s">
         <v>117</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="22" t="s">
+      <c r="V29" s="21" t="s">
         <v>84</v>
       </c>
       <c r="W29" s="13"/>
@@ -3723,19 +3185,19 @@
       <c r="AB29" s="13">
         <v>2</v>
       </c>
-      <c r="AC29" s="22" t="s">
+      <c r="AC29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="22" t="s">
+      <c r="AD29" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AE29" s="22" t="s">
+      <c r="AE29" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3755,13 +3217,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="31" t="s">
         <v>120</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>81</v>
       </c>
       <c r="L30" s="14"/>
@@ -3771,20 +3233,20 @@
       <c r="P30" s="14">
         <v>2</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="26" t="s">
         <v>116</v>
       </c>
       <c r="S30" s="14">
         <v>4</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="22" t="s">
         <v>117</v>
       </c>
       <c r="U30" s="14"/>
-      <c r="V30" s="23" t="s">
+      <c r="V30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="W30" s="14"/>
@@ -3801,19 +3263,19 @@
       <c r="AB30" s="14">
         <v>3</v>
       </c>
-      <c r="AC30" s="23" t="s">
+      <c r="AC30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AD30" s="23" t="s">
+      <c r="AD30" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AE30" s="23" t="s">
+      <c r="AE30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -3844,41 +3306,41 @@
       <c r="J31" s="17">
         <v>0</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -3907,41 +3369,41 @@
       <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="N32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -3972,41 +3434,41 @@
       <c r="J33" s="17">
         <v>0</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -4035,41 +3497,41 @@
       <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -4100,41 +3562,41 @@
       <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="26" t="s">
+      <c r="N35" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -4154,13 +3616,13 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="32" t="s">
         <v>114</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="23" t="s">
         <v>81</v>
       </c>
       <c r="L36" s="17"/>
@@ -4170,20 +3632,20 @@
       <c r="P36" s="17">
         <v>2</v>
       </c>
-      <c r="Q36" s="31" t="s">
+      <c r="Q36" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="31" t="s">
+      <c r="R36" s="27" t="s">
         <v>116</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
-      <c r="T36" s="26" t="s">
+      <c r="T36" s="23" t="s">
         <v>117</v>
       </c>
       <c r="U36" s="17"/>
-      <c r="V36" s="26" t="s">
+      <c r="V36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="W36" s="17"/>
@@ -4200,19 +3662,19 @@
       <c r="AB36" s="17">
         <v>2</v>
       </c>
-      <c r="AC36" s="26" t="s">
+      <c r="AC36" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AD36" s="26" t="s">
+      <c r="AD36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="AE36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -4243,19 +3705,19 @@
       <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P37" s="14"/>
@@ -4264,32 +3726,32 @@
       <c r="S37" s="14">
         <v>1</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="V37" s="23" t="s">
+      <c r="V37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="23" t="s">
+      <c r="W37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="X37" s="23" t="s">
+      <c r="X37" s="22" t="s">
         <v>90</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>61</v>
       </c>
@@ -4320,41 +3782,41 @@
       <c r="J38" s="14">
         <v>0</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="N38" s="23" t="s">
+      <c r="N38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="23" t="s">
+      <c r="O38" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>62</v>
       </c>
@@ -4379,47 +3841,47 @@
       <c r="H39" s="14">
         <v>0</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>63</v>
       </c>
@@ -4444,47 +3906,47 @@
       <c r="H40" s="14">
         <v>0</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="24" t="s">
         <v>131</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="14"/>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>100</v>
       </c>
@@ -4577,10 +4039,152 @@
         <v>69</v>
       </c>
     </row>
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
+        <v>1</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11">
+        <v>1</v>
+      </c>
+      <c r="T42" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V42" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG42" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792BFDB-E62A-46C9-9E69-832B7F96AF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAFBE7-2AAC-4DF3-B5D1-03EC36B3D16A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -937,6 +937,10 @@
   </si>
   <si>
     <t>2,2,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4148,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>89</v>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAFBE7-2AAC-4DF3-B5D1-03EC36B3D16A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -886,18 +880,28 @@
   </si>
   <si>
     <t>新手怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手怪2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,2</t>
+  </si>
+  <si>
+    <t>1511,10</t>
+  </si>
+  <si>
+    <t>2,2,1</t>
   </si>
   <si>
     <t>1510,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -905,7 +909,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,39 +924,181 @@
       </rPr>
       <t>,10</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1511,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手怪2</t>
   </si>
   <si>
     <t>5,5,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,22 +1112,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,24 +1140,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79982909634693444"/>
+        <fgColor theme="7" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79982909634693444"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1049,9 +1366,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1077,31 +1636,79 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1359,19 +1966,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1391,7 +1998,7 @@
     <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,35 +2071,35 @@
       <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AG1" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1562,35 +2169,35 @@
       <c r="X2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AE2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AF2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AG2" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1681,7 +2288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1723,7 +2330,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1771,7 +2378,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1819,7 +2426,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1867,7 +2474,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1887,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="11">
@@ -1910,7 +2517,7 @@
         <v>2003</v>
       </c>
       <c r="S8" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="20" t="s">
         <v>82</v>
@@ -1933,7 +2540,7 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="20" t="s">
         <v>85</v>
@@ -1947,7 +2554,7 @@
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2008,7 +2615,7 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2056,7 +2663,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2104,7 +2711,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2149,7 +2756,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2194,7 +2801,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2239,7 +2846,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2284,7 +2891,7 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2329,7 +2936,7 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2374,7 +2981,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:33">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2419,7 +3026,7 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:33">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2464,7 +3071,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2555,7 +3162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2646,7 +3253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2737,7 +3344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="3" customFormat="1" spans="1:33">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -2768,41 +3375,41 @@
       <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="3" customFormat="1" spans="1:33">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -2831,41 +3438,41 @@
       <c r="J24" s="13">
         <v>0</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="3" customFormat="1" spans="1:33">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -2896,41 +3503,41 @@
       <c r="J25" s="13">
         <v>0</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="3" customFormat="1" spans="1:33">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -2959,41 +3566,41 @@
       <c r="J26" s="13">
         <v>0</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
     </row>
-    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="3" customFormat="1" spans="1:33">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -3024,41 +3631,41 @@
       <c r="J27" s="13">
         <v>0</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:33">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3089,41 +3696,41 @@
       <c r="J28" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="3" customFormat="1" spans="1:33">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3143,13 +3750,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="35" t="s">
         <v>114</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="22" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="13"/>
@@ -3159,20 +3766,20 @@
       <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="29" t="s">
         <v>116</v>
       </c>
       <c r="S29" s="13">
         <v>3</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" s="22" t="s">
         <v>117</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="21" t="s">
+      <c r="V29" s="22" t="s">
         <v>84</v>
       </c>
       <c r="W29" s="13"/>
@@ -3189,19 +3796,19 @@
       <c r="AB29" s="13">
         <v>2</v>
       </c>
-      <c r="AC29" s="21" t="s">
+      <c r="AC29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="21" t="s">
+      <c r="AD29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AE29" s="21" t="s">
+      <c r="AE29" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" spans="1:33">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3221,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="36" t="s">
         <v>120</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="23" t="s">
         <v>81</v>
       </c>
       <c r="L30" s="14"/>
@@ -3237,20 +3844,20 @@
       <c r="P30" s="14">
         <v>2</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="R30" s="30" t="s">
         <v>116</v>
       </c>
       <c r="S30" s="14">
         <v>4</v>
       </c>
-      <c r="T30" s="22" t="s">
+      <c r="T30" s="23" t="s">
         <v>117</v>
       </c>
       <c r="U30" s="14"/>
-      <c r="V30" s="22" t="s">
+      <c r="V30" s="23" t="s">
         <v>84</v>
       </c>
       <c r="W30" s="14"/>
@@ -3267,19 +3874,19 @@
       <c r="AB30" s="14">
         <v>3</v>
       </c>
-      <c r="AC30" s="22" t="s">
+      <c r="AC30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AD30" s="22" t="s">
+      <c r="AD30" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AE30" s="22" t="s">
+      <c r="AE30" s="23" t="s">
         <v>84</v>
       </c>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
     </row>
-    <row r="31" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="4" customFormat="1" spans="1:33">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -3310,41 +3917,41 @@
       <c r="J31" s="17">
         <v>0</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="4" customFormat="1" spans="1:33">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -3373,41 +3980,41 @@
       <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="4" customFormat="1" spans="1:33">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -3438,41 +4045,41 @@
       <c r="J33" s="17">
         <v>0</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="M33" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
     </row>
-    <row r="34" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="4" customFormat="1" spans="1:33">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -3501,41 +4108,41 @@
       <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
     </row>
-    <row r="35" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="4" customFormat="1" spans="1:33">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -3566,41 +4173,41 @@
       <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="M35" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
     </row>
-    <row r="36" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" s="4" customFormat="1" spans="1:33">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -3620,13 +4227,13 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="37" t="s">
         <v>114</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="26" t="s">
         <v>81</v>
       </c>
       <c r="L36" s="17"/>
@@ -3636,20 +4243,20 @@
       <c r="P36" s="17">
         <v>2</v>
       </c>
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="R36" s="31" t="s">
         <v>116</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T36" s="26" t="s">
         <v>117</v>
       </c>
       <c r="U36" s="17"/>
-      <c r="V36" s="23" t="s">
+      <c r="V36" s="26" t="s">
         <v>84</v>
       </c>
       <c r="W36" s="17"/>
@@ -3666,19 +4273,19 @@
       <c r="AB36" s="17">
         <v>2</v>
       </c>
-      <c r="AC36" s="23" t="s">
+      <c r="AC36" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AD36" s="23" t="s">
+      <c r="AD36" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AE36" s="23" t="s">
+      <c r="AE36" s="26" t="s">
         <v>84</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" s="2" customFormat="1" spans="1:33">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -3709,19 +4316,19 @@
       <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="O37" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P37" s="14"/>
@@ -3730,32 +4337,32 @@
       <c r="S37" s="14">
         <v>1</v>
       </c>
-      <c r="T37" s="22" t="s">
+      <c r="T37" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="U37" s="22" t="s">
+      <c r="U37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="V37" s="22" t="s">
+      <c r="V37" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="22" t="s">
+      <c r="W37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="X37" s="22" t="s">
+      <c r="X37" s="23" t="s">
         <v>90</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
     </row>
-    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="2" customFormat="1" spans="1:33">
       <c r="A38" s="2">
         <v>61</v>
       </c>
@@ -3786,41 +4393,41 @@
       <c r="J38" s="14">
         <v>0</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
     </row>
-    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" s="2" customFormat="1" spans="1:33">
       <c r="A39" s="2">
         <v>62</v>
       </c>
@@ -3845,47 +4452,47 @@
       <c r="H39" s="14">
         <v>0</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
     </row>
-    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" s="2" customFormat="1" spans="1:33">
       <c r="A40" s="2">
         <v>63</v>
       </c>
@@ -3910,47 +4517,47 @@
       <c r="H40" s="14">
         <v>0</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="28" t="s">
         <v>131</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
       <c r="AE40" s="14"/>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="1">
         <v>100</v>
       </c>
@@ -4043,7 +4650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" s="1" customFormat="1" spans="1:33">
       <c r="A42" s="1">
         <v>1001</v>
       </c>
@@ -4072,12 +4679,12 @@
       <c r="J42" s="11">
         <v>1</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>137</v>
+      <c r="K42" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -4090,13 +4697,13 @@
         <v>1</v>
       </c>
       <c r="T42" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U42" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="V42" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="V42" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
@@ -4112,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="AD42" s="20" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="AE42" s="20" t="s">
         <v>69</v>
@@ -4124,12 +4731,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" s="2" customFormat="1" spans="1:33">
       <c r="A43" s="2">
         <v>1002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>87</v>
@@ -4152,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>89</v>
@@ -4186,9 +4793,9 @@
       <c r="AG43" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B673A79-EE5F-4EE6-BF81-298FA8FBB0B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="1635" yWindow="3510" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,13 +55,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -62,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,13 +80,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -86,6 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,13 +105,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -109,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -132,6 +147,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -139,13 +155,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -155,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -162,13 +180,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -178,6 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -185,13 +205,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -200,6 +221,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -210,13 +232,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -225,6 +248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,13 +261,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -252,6 +277,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -269,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -399,6 +425,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,6 +436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,6 +473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,6 +484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,6 +495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,6 +532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -511,6 +543,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -521,6 +554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,6 +630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -606,6 +641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -627,6 +663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,6 +674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,6 +693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,6 +704,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,6 +715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -685,6 +726,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -695,6 +737,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -705,6 +748,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -801,6 +845,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -811,6 +856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,6 +880,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -888,9 +936,6 @@
     <t>1511,10</t>
   </si>
   <si>
-    <t>2,2,1</t>
-  </si>
-  <si>
     <t>1510,10</t>
   </si>
   <si>
@@ -899,6 +944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,6 +955,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -919,6 +966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -929,20 +977,96 @@
     <t>新手怪2</t>
   </si>
   <si>
-    <t>5,5,3</t>
+    <t>主脑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>515,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5,5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,166 +1078,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,210 +1130,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
+        <fgColor theme="7" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1366,253 +1170,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1636,79 +1198,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1966,19 +1483,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1998,7 +1515,7 @@
     <col min="30" max="33" width="14.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2071,35 +1588,35 @@
       <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2169,35 +1686,35 @@
       <c r="X2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2288,7 +1805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2330,7 +1847,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2378,7 +1895,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2426,7 +1943,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2474,7 +1991,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2494,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="11">
@@ -2554,7 +2071,7 @@
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2615,7 +2132,7 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2663,7 +2180,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2711,7 +2228,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2756,7 +2273,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2801,7 +2318,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2846,7 +2363,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2891,7 +2408,7 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2936,7 +2453,7 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2981,7 +2498,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3026,7 +2543,7 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3071,7 +2588,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3162,7 +2679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3253,7 +2770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3344,7 +2861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3375,41 +2892,41 @@
       <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3438,41 +2955,41 @@
       <c r="J24" s="13">
         <v>0</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3503,41 +3020,41 @@
       <c r="J25" s="13">
         <v>0</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3566,41 +3083,41 @@
       <c r="J26" s="13">
         <v>0</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -3631,41 +3148,41 @@
       <c r="J27" s="13">
         <v>0</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="21" t="s">
         <v>90</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3696,41 +3213,41 @@
       <c r="J28" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3750,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="31" t="s">
         <v>114</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="21" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="13"/>
@@ -3766,20 +3283,20 @@
       <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="25" t="s">
         <v>116</v>
       </c>
       <c r="S29" s="13">
         <v>3</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="T29" s="21" t="s">
         <v>117</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="22" t="s">
+      <c r="V29" s="21" t="s">
         <v>84</v>
       </c>
       <c r="W29" s="13"/>
@@ -3796,19 +3313,19 @@
       <c r="AB29" s="13">
         <v>2</v>
       </c>
-      <c r="AC29" s="22" t="s">
+      <c r="AC29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="22" t="s">
+      <c r="AD29" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AE29" s="22" t="s">
+      <c r="AE29" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3828,13 +3345,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="32" t="s">
         <v>120</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>81</v>
       </c>
       <c r="L30" s="14"/>
@@ -3844,20 +3361,20 @@
       <c r="P30" s="14">
         <v>2</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="26" t="s">
         <v>116</v>
       </c>
       <c r="S30" s="14">
         <v>4</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="22" t="s">
         <v>117</v>
       </c>
       <c r="U30" s="14"/>
-      <c r="V30" s="23" t="s">
+      <c r="V30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="W30" s="14"/>
@@ -3874,19 +3391,19 @@
       <c r="AB30" s="14">
         <v>3</v>
       </c>
-      <c r="AC30" s="23" t="s">
+      <c r="AC30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AD30" s="23" t="s">
+      <c r="AD30" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AE30" s="23" t="s">
+      <c r="AE30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -3917,41 +3434,41 @@
       <c r="J31" s="17">
         <v>0</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -3980,41 +3497,41 @@
       <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="N32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -4045,41 +3562,41 @@
       <c r="J33" s="17">
         <v>0</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -4108,41 +3625,41 @@
       <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -4173,41 +3690,41 @@
       <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="26" t="s">
+      <c r="N35" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -4227,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="33" t="s">
         <v>114</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="23" t="s">
         <v>81</v>
       </c>
       <c r="L36" s="17"/>
@@ -4243,20 +3760,20 @@
       <c r="P36" s="17">
         <v>2</v>
       </c>
-      <c r="Q36" s="31" t="s">
+      <c r="Q36" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="31" t="s">
+      <c r="R36" s="27" t="s">
         <v>116</v>
       </c>
       <c r="S36" s="17">
         <v>3</v>
       </c>
-      <c r="T36" s="26" t="s">
+      <c r="T36" s="23" t="s">
         <v>117</v>
       </c>
       <c r="U36" s="17"/>
-      <c r="V36" s="26" t="s">
+      <c r="V36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="W36" s="17"/>
@@ -4273,19 +3790,19 @@
       <c r="AB36" s="17">
         <v>2</v>
       </c>
-      <c r="AC36" s="26" t="s">
+      <c r="AC36" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AD36" s="26" t="s">
+      <c r="AD36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="AE36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -4316,19 +3833,19 @@
       <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P37" s="14"/>
@@ -4337,32 +3854,32 @@
       <c r="S37" s="14">
         <v>1</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="V37" s="23" t="s">
+      <c r="V37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="23" t="s">
+      <c r="W37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="X37" s="23" t="s">
+      <c r="X37" s="22" t="s">
         <v>90</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>61</v>
       </c>
@@ -4393,41 +3910,41 @@
       <c r="J38" s="14">
         <v>0</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="N38" s="23" t="s">
+      <c r="N38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="23" t="s">
+      <c r="O38" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>62</v>
       </c>
@@ -4452,47 +3969,47 @@
       <c r="H39" s="14">
         <v>0</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>63</v>
       </c>
@@ -4517,47 +4034,47 @@
       <c r="H40" s="14">
         <v>0</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="24" t="s">
         <v>131</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="14"/>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>100</v>
       </c>
@@ -4650,7 +4167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1001</v>
       </c>
@@ -4679,7 +4196,7 @@
       <c r="J42" s="11">
         <v>1</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="23" t="s">
         <v>133</v>
       </c>
       <c r="L42" s="20"/>
@@ -4696,47 +4213,33 @@
       <c r="S42" s="11">
         <v>1</v>
       </c>
-      <c r="T42" s="20" t="s">
+      <c r="T42" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="U42" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="U42" s="20" t="s">
+      <c r="V42" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="V42" s="32" t="s">
-        <v>137</v>
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
-      <c r="Y42" s="11">
-        <v>2</v>
-      </c>
+      <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
-      <c r="AB42" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE42" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF42" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG42" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:33">
+    <row r="43" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>87</v>
@@ -4745,34 +4248,32 @@
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5">
+        <v>2045</v>
+      </c>
       <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="K43" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="N43" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" s="10"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -4792,10 +4293,73 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
     </row>
+    <row r="44" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6">
+        <v>1</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B673A79-EE5F-4EE6-BF81-298FA8FBB0B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6F5D9-AA6D-4FE7-B3F7-80821F7D18F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="3510" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -649,9 +649,6 @@
     </r>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
     <t>16,1</t>
   </si>
   <si>
@@ -1054,11 +1051,216 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5,5,1,2</t>
+    <t>5,2,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5,2,1</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,1,3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>517,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>516,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>518,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>520,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>519,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,2,5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003,1010,2007,2016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>521,1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,1,4,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10|10,7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1523,1|1524,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,5,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1210,10 +1412,10 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1491,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,18 +2063,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="10">
-        <v>6</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>154</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2034,16 +2240,16 @@
         <v>2003</v>
       </c>
       <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="V8" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2057,16 +2263,16 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE8" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2076,10 +2282,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2099,19 +2305,19 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="O9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -2137,29 +2343,32 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>11</v>
-      </c>
-      <c r="L10" s="5"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -2185,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2233,10 +2442,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2278,10 +2487,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2323,10 +2532,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2368,34 +2577,50 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="10">
-        <v>5</v>
+      <c r="I15" s="5">
+        <v>2045</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
+      <c r="O15" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>147</v>
+      </c>
       <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="35" t="s">
+        <v>148</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
@@ -2413,10 +2638,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2458,10 +2683,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2503,10 +2728,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2548,10 +2773,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2866,7 +3091,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
@@ -2893,19 +3118,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="N23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="O23" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -2931,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
@@ -2956,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="N24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="O24" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -2994,7 +3219,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
@@ -3021,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="N25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="O25" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -3059,7 +3284,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -3084,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="N26" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="O26" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -3122,7 +3347,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3149,19 +3374,19 @@
         <v>0</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="N27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="O27" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -3187,7 +3412,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -3214,19 +3439,19 @@
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="N28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="O28" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3252,7 +3477,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>79</v>
@@ -3268,7 +3493,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -3284,20 +3509,20 @@
         <v>2</v>
       </c>
       <c r="Q29" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="R29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="S29" s="13">
+        <v>0</v>
+      </c>
+      <c r="T29" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="S29" s="13">
-        <v>3</v>
-      </c>
-      <c r="T29" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
@@ -3314,13 +3539,13 @@
         <v>2</v>
       </c>
       <c r="AC29" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD29" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
@@ -3330,7 +3555,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>79</v>
@@ -3346,7 +3571,7 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
@@ -3362,20 +3587,20 @@
         <v>2</v>
       </c>
       <c r="Q30" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="R30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="S30" s="14">
-        <v>4</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
@@ -3392,13 +3617,13 @@
         <v>3</v>
       </c>
       <c r="AC30" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD30" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE30" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
@@ -3408,7 +3633,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>66</v>
@@ -3435,19 +3660,19 @@
         <v>0</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L31" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="N31" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="O31" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3473,7 +3698,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>66</v>
@@ -3498,19 +3723,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="N32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="O32" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -3536,7 +3761,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>66</v>
@@ -3563,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="N33" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="O33" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -3601,7 +3826,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -3626,19 +3851,19 @@
         <v>0</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="N34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N34" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="O34" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -3664,7 +3889,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
@@ -3691,19 +3916,19 @@
         <v>0</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="N35" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="O35" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -3729,7 +3954,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>79</v>
@@ -3744,8 +3969,8 @@
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="33" t="s">
-        <v>114</v>
+      <c r="I36" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
@@ -3761,20 +3986,20 @@
         <v>2</v>
       </c>
       <c r="Q36" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="S36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="S36" s="17">
-        <v>3</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -3791,13 +4016,13 @@
         <v>2</v>
       </c>
       <c r="AC36" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD36" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE36" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
@@ -3807,7 +4032,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -3834,19 +4059,19 @@
         <v>0</v>
       </c>
       <c r="K37" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>123</v>
-      </c>
       <c r="M37" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="O37" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
@@ -3855,19 +4080,19 @@
         <v>1</v>
       </c>
       <c r="T37" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V37" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="W37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="X37" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
@@ -3884,7 +4109,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>66</v>
@@ -3911,19 +4136,19 @@
         <v>0</v>
       </c>
       <c r="K38" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="N38" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -3949,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>75</v>
@@ -3970,25 +4195,25 @@
         <v>0</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="N39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="O39" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
@@ -4014,7 +4239,7 @@
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>75</v>
@@ -4035,25 +4260,25 @@
         <v>0</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L40" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="N40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="O40" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
@@ -4172,7 +4397,7 @@
         <v>1001</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>66</v>
@@ -4197,11 +4422,11 @@
         <v>1</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -4214,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="T42" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U42" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V42" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="V42" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
@@ -4239,10 +4464,10 @@
         <v>1002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4263,15 +4488,15 @@
       <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K43" s="35" t="s">
-        <v>140</v>
+      <c r="K43" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="35" t="s">
-        <v>139</v>
+        <v>89</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="6"/>
@@ -4297,17 +4522,17 @@
       <c r="A44" s="2">
         <v>1003</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>138</v>
+      <c r="B44" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -4316,21 +4541,23 @@
         <v>0</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>2051</v>
+      </c>
       <c r="J44" s="5">
         <v>1</v>
       </c>
-      <c r="K44" s="35" t="s">
-        <v>142</v>
+      <c r="K44" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>90</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="O44" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="P44" s="6">
         <v>1</v>
       </c>
@@ -4339,8 +4566,8 @@
       <c r="S44" s="6">
         <v>1</v>
       </c>
-      <c r="T44" s="36" t="s">
-        <v>141</v>
+      <c r="T44" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -4359,7 +4586,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6F5D9-AA6D-4FE7-B3F7-80821F7D18F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD47A8-EC37-4F43-AAA4-9CCB23AC93DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -682,9 +682,6 @@
     <t>普通谢尔克</t>
   </si>
   <si>
-    <t>xieerke_1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -927,9 +924,6 @@
     <t>新手怪</t>
   </si>
   <si>
-    <t>5,5,5,2</t>
-  </si>
-  <si>
     <t>1511,10</t>
   </si>
   <si>
@@ -1261,6 +1255,61 @@
   </si>
   <si>
     <t>5,1,5,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>huoyuansu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shangmo_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_test_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieerke_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuiyuansu_2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1416,6 +1465,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1693,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1921,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2074,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2243,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U8" s="20" t="s">
         <v>82</v>
@@ -2266,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="AC8" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD8" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="AD8" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="AE8" s="20" t="s">
         <v>83</v>
@@ -2284,8 +2335,8 @@
       <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
+      <c r="C9" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2305,19 +2356,19 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="O9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -2343,10 +2394,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2360,14 +2411,14 @@
         <v>1</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
@@ -2394,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2442,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2487,10 +2538,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2532,10 +2583,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2577,10 +2628,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2596,15 +2647,15 @@
         <v>1</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P15" s="6">
         <v>1</v>
@@ -2615,11 +2666,11 @@
         <v>1</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2638,10 +2689,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2683,10 +2734,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2728,10 +2779,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2773,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3090,11 +3141,11 @@
       <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
+      <c r="B23" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -3118,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="N23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="O23" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -3156,10 +3207,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>106</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -3181,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="N24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="O24" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -3219,10 +3270,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -3246,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L25" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="N25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="O25" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -3284,7 +3335,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -3309,19 +3360,19 @@
         <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="N26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="O26" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -3347,7 +3398,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3374,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="N27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="O27" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -3412,7 +3463,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -3439,19 +3490,19 @@
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="N28" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="O28" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3477,7 +3528,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>79</v>
@@ -3493,7 +3544,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -3509,16 +3560,16 @@
         <v>2</v>
       </c>
       <c r="Q29" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="S29" s="13">
+        <v>0</v>
+      </c>
+      <c r="T29" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="S29" s="13">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="21" t="s">
@@ -3536,13 +3587,13 @@
         <v>2018</v>
       </c>
       <c r="AB29" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AD29" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE29" s="21" t="s">
         <v>83</v>
@@ -3555,7 +3606,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>79</v>
@@ -3571,7 +3622,7 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
@@ -3587,16 +3638,16 @@
         <v>2</v>
       </c>
       <c r="Q30" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="22" t="s">
@@ -3614,13 +3665,13 @@
         <v>2018</v>
       </c>
       <c r="AB30" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AD30" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE30" s="22" t="s">
         <v>83</v>
@@ -3633,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>66</v>
@@ -3660,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L31" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="N31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="O31" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3698,7 +3749,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>66</v>
@@ -3723,19 +3774,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L32" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="N32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N32" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="O32" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -3761,7 +3812,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>66</v>
@@ -3788,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="N33" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N33" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="O33" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -3826,7 +3877,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -3851,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="N34" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="O34" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -3889,7 +3940,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
@@ -3916,19 +3967,19 @@
         <v>0</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="N35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="O35" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -3954,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>79</v>
@@ -3970,7 +4021,7 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
@@ -3986,16 +4037,16 @@
         <v>2</v>
       </c>
       <c r="Q36" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="S36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="S36" s="17">
-        <v>0</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="23" t="s">
@@ -4013,13 +4064,13 @@
         <v>2018</v>
       </c>
       <c r="AB36" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="AD36" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>83</v>
@@ -4032,7 +4083,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -4059,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="K37" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>122</v>
-      </c>
       <c r="M37" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="O37" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
@@ -4080,19 +4131,19 @@
         <v>1</v>
       </c>
       <c r="T37" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V37" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="W37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="W37" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="X37" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
@@ -4109,7 +4160,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>66</v>
@@ -4136,19 +4187,19 @@
         <v>0</v>
       </c>
       <c r="K38" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="N38" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -4174,7 +4225,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>75</v>
@@ -4195,25 +4246,25 @@
         <v>0</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="N39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="O39" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
@@ -4239,7 +4290,7 @@
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>75</v>
@@ -4260,25 +4311,25 @@
         <v>0</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L40" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="N40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="N40" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="O40" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
@@ -4392,82 +4443,82 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>1001</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11">
+      <c r="N42" s="34"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="T42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20" t="s">
+      <c r="V42" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11">
-        <v>1</v>
-      </c>
-      <c r="T42" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="U42" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="V42" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
     </row>
     <row r="43" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>134</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4489,14 +4540,14 @@
         <v>1</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="6"/>
@@ -4523,10 +4574,10 @@
         <v>1003</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -4548,15 +4599,15 @@
         <v>1</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P44" s="6">
         <v>1</v>
@@ -4567,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD47A8-EC37-4F43-AAA4-9CCB23AC93DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF192BDD-A8E1-4011-BAE1-86B3746B1BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -801,9 +801,6 @@
     <t>暴击刺猬怪</t>
   </si>
   <si>
-    <t>弃牌石人5</t>
-  </si>
-  <si>
     <t>2,1,0,0,5</t>
   </si>
   <si>
@@ -1281,6 +1278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1310,6 +1308,41 @@
   </si>
   <si>
     <t>shuiyuansu_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量衰弱者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,1,4,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1529</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1530,1</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1467,6 +1500,8 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1745,7 +1780,7 @@
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1972,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>158</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2125,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2294,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U8" s="20" t="s">
         <v>82</v>
@@ -2317,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD8" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="20" t="s">
         <v>83</v>
@@ -2336,7 +2371,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2411,14 +2446,14 @@
         <v>1</v>
       </c>
       <c r="K10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
@@ -2647,15 +2682,15 @@
         <v>1</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P15" s="6">
         <v>1</v>
@@ -2666,11 +2701,11 @@
         <v>1</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -3142,10 +3177,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -3169,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>87</v>
@@ -3207,10 +3242,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -3232,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>87</v>
@@ -3270,10 +3305,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -3297,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>87</v>
@@ -3335,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
@@ -3360,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>87</v>
@@ -3398,7 +3433,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3425,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>87</v>
@@ -3463,7 +3498,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -3490,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L28" s="22" t="s">
         <v>87</v>
@@ -3528,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>79</v>
@@ -3544,7 +3579,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -3560,16 +3595,16 @@
         <v>2</v>
       </c>
       <c r="Q29" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="R29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="S29" s="13">
+        <v>0</v>
+      </c>
+      <c r="T29" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="S29" s="13">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="21" t="s">
@@ -3593,7 +3628,7 @@
         <v>84</v>
       </c>
       <c r="AD29" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE29" s="21" t="s">
         <v>83</v>
@@ -3606,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>79</v>
@@ -3622,7 +3657,7 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
@@ -3638,16 +3673,16 @@
         <v>2</v>
       </c>
       <c r="Q30" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R30" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="22" t="s">
@@ -3671,7 +3706,7 @@
         <v>84</v>
       </c>
       <c r="AD30" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE30" s="22" t="s">
         <v>83</v>
@@ -3683,11 +3718,11 @@
       <c r="A31" s="4">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
+      <c r="B31" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3704,26 +3739,20 @@
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="17">
-        <v>2012</v>
-      </c>
+      <c r="I31" s="17"/>
       <c r="J31" s="17">
-        <v>0</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>88</v>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3749,7 +3778,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>66</v>
@@ -3774,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="23" t="s">
         <v>87</v>
@@ -3812,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>66</v>
@@ -3839,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>87</v>
@@ -3877,7 +3906,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -3902,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>87</v>
@@ -3940,7 +3969,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
@@ -3967,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L35" s="23" t="s">
         <v>87</v>
@@ -4005,7 +4034,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>79</v>
@@ -4021,7 +4050,7 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
@@ -4037,16 +4066,16 @@
         <v>2</v>
       </c>
       <c r="Q36" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="R36" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="S36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="S36" s="17">
-        <v>0</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="23" t="s">
@@ -4070,7 +4099,7 @@
         <v>84</v>
       </c>
       <c r="AD36" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>83</v>
@@ -4083,7 +4112,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -4110,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="M37" s="22" t="s">
         <v>88</v>
@@ -4131,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="T37" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V37" s="22" t="s">
         <v>88</v>
@@ -4160,7 +4189,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>66</v>
@@ -4187,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>89</v>
@@ -4225,7 +4254,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>75</v>
@@ -4246,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L39" s="22" t="s">
         <v>87</v>
@@ -4290,7 +4319,7 @@
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>75</v>
@@ -4311,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L40" s="22" t="s">
         <v>87</v>
@@ -4448,7 +4477,7 @@
         <v>1001</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
@@ -4473,11 +4502,11 @@
         <v>1</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N42" s="34"/>
       <c r="O42" s="10"/>
@@ -4490,13 +4519,13 @@
         <v>1</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="V42" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="V42" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -4515,10 +4544,10 @@
         <v>1002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4540,14 +4569,14 @@
         <v>1</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
         <v>88</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="6"/>
@@ -4574,10 +4603,10 @@
         <v>1003</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -4599,15 +4628,15 @@
         <v>1</v>
       </c>
       <c r="K44" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P44" s="6">
         <v>1</v>
@@ -4618,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>

--- a/Client/Assets/Data/MonsterType.xlsx
+++ b/Client/Assets/Data/MonsterType.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF192BDD-A8E1-4011-BAE1-86B3746B1BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,14 +47,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -71,7 +62,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,14 +70,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -97,7 +86,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +93,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -122,7 +109,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -147,7 +132,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -155,14 +139,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -172,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,14 +162,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:
@@ -197,7 +178,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +185,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -221,7 +200,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -232,14 +210,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -248,7 +225,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -261,14 +237,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -277,7 +252,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -295,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -425,7 +399,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +409,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +445,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -484,7 +455,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,7 +465,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -532,7 +501,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,7 +511,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,7 +521,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -577,33 +543,93 @@
     <t>listNerf3</t>
   </si>
   <si>
+    <t>火元素</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huoyuansu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>2,2,1,2</t>
+  </si>
+  <si>
+    <t>17,10</t>
+  </si>
+  <si>
+    <t>23,10</t>
+  </si>
+  <si>
+    <t>18,10</t>
+  </si>
+  <si>
+    <t>19,10</t>
+  </si>
+  <si>
     <t>普通石人</t>
   </si>
   <si>
     <t>monster_test_01</t>
   </si>
   <si>
-    <t>2,2,1,2</t>
-  </si>
-  <si>
-    <t>17,10</t>
-  </si>
-  <si>
-    <t>23,10</t>
-  </si>
-  <si>
-    <t>18,10</t>
-  </si>
-  <si>
-    <t>19,10</t>
-  </si>
-  <si>
     <t>强壮石人</t>
   </si>
   <si>
     <t>monster_test_02</t>
   </si>
   <si>
+    <t>5,1,5,1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>521,1</t>
+    </r>
+  </si>
+  <si>
     <t>快速打击石人</t>
   </si>
   <si>
@@ -630,7 +656,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,7 +666,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -649,18 +673,42 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,2,5</t>
+    </r>
+  </si>
+  <si>
     <t>16,1</t>
   </si>
   <si>
     <t>50,1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+    <t>1,2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +719,347 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+  </si>
+  <si>
+    <t>普通谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>5,10|10,7</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>5,10|10,5</t>
+  </si>
+  <si>
+    <t>快速打击谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,1,3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>517,1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>516,1</t>
+    </r>
+  </si>
+  <si>
+    <t>憋狠招谢尔克</t>
+  </si>
+  <si>
+    <t>xieerke_3</t>
+  </si>
+  <si>
+    <t>普通熵魔</t>
+  </si>
+  <si>
+    <t>shangmo_1</t>
+  </si>
+  <si>
+    <t>快速打击熵魔</t>
+  </si>
+  <si>
+    <t>憋狠招熵魔</t>
+  </si>
+  <si>
+    <t>普通刺猬怪</t>
+  </si>
+  <si>
+    <t>ciweimo_1</t>
+  </si>
+  <si>
+    <t>2,2,2,4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>519,1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>518,1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>520,1</t>
+    </r>
+  </si>
+  <si>
+    <t>强壮刺猬怪</t>
+  </si>
+  <si>
+    <t>快速打击刺猬怪</t>
+  </si>
+  <si>
+    <t>憋狠招刺猬怪</t>
+  </si>
+  <si>
+    <t>暴击刺猬怪</t>
+  </si>
+  <si>
+    <t>弃牌者</t>
+  </si>
+  <si>
+    <t>2,1,0,0,5</t>
+  </si>
+  <si>
+    <t>普通石人6</t>
+  </si>
+  <si>
+    <t>叠攻击石人7</t>
+  </si>
+  <si>
+    <t>普通石人8</t>
+  </si>
+  <si>
+    <t>冰冷石人9</t>
+  </si>
+  <si>
+    <t>普通石人10</t>
+  </si>
+  <si>
+    <t>巨石国王2</t>
+  </si>
+  <si>
+    <t>2003,1010,2007,2016</t>
+  </si>
+  <si>
+    <t>2020,2018</t>
+  </si>
+  <si>
+    <t>2003,2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -679,37 +1067,255 @@
     </r>
   </si>
   <si>
-    <t>普通谢尔克</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,0,0,0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+  </si>
+  <si>
+    <t>巨石国王3</t>
+  </si>
+  <si>
+    <t>2003,1010,2007,2016,2013</t>
+  </si>
+  <si>
+    <t>能量衰弱者</t>
+  </si>
+  <si>
+    <t>5,4,1,4,1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1529</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1530,1</t>
+    </r>
+  </si>
+  <si>
+    <t>威力石人</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>1500,10</t>
+  </si>
+  <si>
+    <t>反弹石人</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1501,1</t>
+  </si>
+  <si>
+    <t>憨憨石人2</t>
+  </si>
+  <si>
+    <t>2013,2016</t>
+  </si>
+  <si>
+    <t>弃牌回血石人</t>
+  </si>
+  <si>
+    <t>2012,2016,2021</t>
+  </si>
+  <si>
+    <t>新手怪</t>
+  </si>
+  <si>
+    <t>5,5,5,2</t>
+  </si>
+  <si>
+    <t>1511,10</t>
+  </si>
+  <si>
+    <t>5,2,1</t>
+  </si>
+  <si>
+    <t>1510,10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>511</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+  </si>
+  <si>
+    <t>新手怪2</t>
+  </si>
+  <si>
+    <t>shuiyuansu_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>515,1</t>
+    </r>
+  </si>
+  <si>
+    <t>主脑</t>
+  </si>
+  <si>
+    <t>1523,1|1524,1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -720,637 +1326,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>5,10|10,7</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>5,10|10,5</t>
-  </si>
-  <si>
-    <t>快速打击谢尔克</t>
-  </si>
-  <si>
-    <t>xieerke_2</t>
-  </si>
-  <si>
-    <t>憋狠招谢尔克</t>
-  </si>
-  <si>
-    <t>xieerke_3</t>
-  </si>
-  <si>
-    <t>普通熵魔</t>
-  </si>
-  <si>
-    <t>shangmo_1</t>
-  </si>
-  <si>
-    <t>快速打击熵魔</t>
-  </si>
-  <si>
-    <t>憋狠招熵魔</t>
-  </si>
-  <si>
-    <t>普通刺猬怪</t>
-  </si>
-  <si>
-    <t>ciweimo_1</t>
-  </si>
-  <si>
-    <t>强壮刺猬怪</t>
-  </si>
-  <si>
-    <t>快速打击刺猬怪</t>
-  </si>
-  <si>
-    <t>憋狠招刺猬怪</t>
-  </si>
-  <si>
-    <t>暴击刺猬怪</t>
-  </si>
-  <si>
-    <t>2,1,0,0,5</t>
-  </si>
-  <si>
-    <t>普通石人6</t>
-  </si>
-  <si>
-    <t>叠攻击石人7</t>
-  </si>
-  <si>
-    <t>普通石人8</t>
-  </si>
-  <si>
-    <t>冰冷石人9</t>
-  </si>
-  <si>
-    <t>普通石人10</t>
-  </si>
-  <si>
-    <t>巨石国王2</t>
-  </si>
-  <si>
-    <t>2003,1010,2007,2016</t>
-  </si>
-  <si>
-    <t>2020,2018</t>
-  </si>
-  <si>
-    <t>2003,2016</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1,0,0,0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>5</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-  </si>
-  <si>
-    <t>巨石国王3</t>
-  </si>
-  <si>
-    <t>2003,1010,2007,2016,2013</t>
-  </si>
-  <si>
-    <t>威力石人</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>5,10</t>
-  </si>
-  <si>
-    <t>1500,10</t>
-  </si>
-  <si>
-    <t>反弹石人</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1501,1</t>
-  </si>
-  <si>
-    <t>憨憨石人2</t>
-  </si>
-  <si>
-    <t>2013,2016</t>
-  </si>
-  <si>
-    <t>弃牌回血石人</t>
-  </si>
-  <si>
-    <t>2012,2016,2021</t>
-  </si>
-  <si>
-    <t>新手怪</t>
-  </si>
-  <si>
-    <t>1511,10</t>
-  </si>
-  <si>
-    <t>1510,10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>511</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10</t>
-    </r>
-  </si>
-  <si>
-    <t>新手怪2</t>
-  </si>
-  <si>
-    <t>主脑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>515,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5,5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1,1,3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>517,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>516,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>518,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>520,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>519,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5,2,5</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003,1010,2007,2016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>521,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4,1,4,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10|10,7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1523,1|1524,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,5,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>huoyuansu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shangmo_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_test_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xieerke_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃牌者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuiyuansu_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量衰弱者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4,1,4,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1529</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1530,1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,32 +1355,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,24 +1541,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79979857783745845"/>
+        <fgColor theme="7" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79979857783745845"/>
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79979857783745845"/>
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1454,9 +1767,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNu